--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.3</v>
+        <v>27.99</v>
       </c>
       <c r="C2" t="n">
-        <v>26.45</v>
+        <v>27.99</v>
       </c>
       <c r="D2" t="n">
-        <v>26.45</v>
+        <v>28.5</v>
       </c>
       <c r="E2" t="n">
-        <v>26.25</v>
+        <v>27.98</v>
       </c>
       <c r="F2" t="n">
-        <v>39777.0806</v>
+        <v>301752.8151</v>
       </c>
       <c r="G2" t="n">
-        <v>26.67533333333331</v>
+        <v>-22463.37382978806</v>
       </c>
       <c r="H2" t="n">
-        <v>27.13249999999998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.35</v>
+        <v>27.9</v>
       </c>
       <c r="C3" t="n">
-        <v>26.35</v>
+        <v>27.21</v>
       </c>
       <c r="D3" t="n">
-        <v>26.35</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>26.35</v>
+        <v>27.21</v>
       </c>
       <c r="F3" t="n">
-        <v>47592.3409</v>
+        <v>155724.5127</v>
       </c>
       <c r="G3" t="n">
-        <v>26.63133333333332</v>
+        <v>-178187.8865297881</v>
       </c>
       <c r="H3" t="n">
-        <v>27.13999999999998</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.44</v>
+        <v>27.4</v>
       </c>
       <c r="C4" t="n">
-        <v>26.26</v>
+        <v>27.3</v>
       </c>
       <c r="D4" t="n">
-        <v>26.44</v>
+        <v>27.6</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2</v>
+        <v>26.89</v>
       </c>
       <c r="F4" t="n">
-        <v>10822</v>
+        <v>194471.2708</v>
       </c>
       <c r="G4" t="n">
-        <v>26.58199999999998</v>
+        <v>16283.38427021194</v>
       </c>
       <c r="H4" t="n">
-        <v>27.14299999999998</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.26</v>
+        <v>27.4</v>
       </c>
       <c r="C5" t="n">
-        <v>26.26</v>
+        <v>27.01</v>
       </c>
       <c r="D5" t="n">
-        <v>26.26</v>
+        <v>27.4</v>
       </c>
       <c r="E5" t="n">
-        <v>26.26</v>
+        <v>26.5</v>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>101712.4727</v>
       </c>
       <c r="G5" t="n">
-        <v>26.53266666666665</v>
+        <v>-85429.08842978805</v>
       </c>
       <c r="H5" t="n">
-        <v>27.14733333333331</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.21</v>
+        <v>26.9</v>
       </c>
       <c r="C6" t="n">
-        <v>26.44</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>26.45</v>
+        <v>27.01</v>
       </c>
       <c r="E6" t="n">
-        <v>26.21</v>
+        <v>26.5</v>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>67813.75659999999</v>
       </c>
       <c r="G6" t="n">
-        <v>26.49466666666665</v>
+        <v>-153242.845029788</v>
       </c>
       <c r="H6" t="n">
-        <v>27.15616666666665</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.13</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>25.9</v>
+        <v>27.01</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3</v>
+        <v>27.01</v>
       </c>
       <c r="E7" t="n">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>78521.8135</v>
+        <v>131.2184</v>
       </c>
       <c r="G7" t="n">
-        <v>26.43466666666665</v>
+        <v>-153111.626629788</v>
       </c>
       <c r="H7" t="n">
-        <v>27.15133333333331</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>26.17</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>26.17</v>
+        <v>27.01</v>
       </c>
       <c r="E8" t="n">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>58539.824</v>
+        <v>2137.9257</v>
       </c>
       <c r="G8" t="n">
-        <v>26.39333333333331</v>
+        <v>-155249.552329788</v>
       </c>
       <c r="H8" t="n">
-        <v>27.15749999999998</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.27</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>2670.2681</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>26.39066666666665</v>
+        <v>-155249.552329788</v>
       </c>
       <c r="H9" t="n">
-        <v>27.16116666666665</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.19</v>
+        <v>26.98</v>
       </c>
       <c r="C10" t="n">
-        <v>26.19</v>
+        <v>26.88</v>
       </c>
       <c r="D10" t="n">
-        <v>26.19</v>
+        <v>26.98</v>
       </c>
       <c r="E10" t="n">
-        <v>26.19</v>
+        <v>26.5</v>
       </c>
       <c r="F10" t="n">
-        <v>2067</v>
+        <v>94311.4412</v>
       </c>
       <c r="G10" t="n">
-        <v>26.38199999999998</v>
+        <v>-249560.993529788</v>
       </c>
       <c r="H10" t="n">
-        <v>27.16599999999998</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="C11" t="n">
-        <v>26.19</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>26.19</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="F11" t="n">
-        <v>450</v>
+        <v>17812.8029</v>
       </c>
       <c r="G11" t="n">
-        <v>26.33599999999998</v>
+        <v>-231748.190629788</v>
       </c>
       <c r="H11" t="n">
-        <v>27.17233333333332</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.09</v>
+        <v>26.54</v>
       </c>
       <c r="C12" t="n">
-        <v>26.09</v>
+        <v>26.79</v>
       </c>
       <c r="D12" t="n">
-        <v>26.09</v>
+        <v>26.79</v>
       </c>
       <c r="E12" t="n">
-        <v>26.09</v>
+        <v>26.31</v>
       </c>
       <c r="F12" t="n">
-        <v>1250</v>
+        <v>20848.971</v>
       </c>
       <c r="G12" t="n">
-        <v>26.28999999999998</v>
+        <v>-252597.161629788</v>
       </c>
       <c r="H12" t="n">
-        <v>27.16899999999998</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="C13" t="n">
-        <v>26.19</v>
+        <v>26.68</v>
       </c>
       <c r="D13" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="E13" t="n">
-        <v>26.19</v>
+        <v>26.68</v>
       </c>
       <c r="F13" t="n">
-        <v>3252.5522</v>
+        <v>51975.7788</v>
       </c>
       <c r="G13" t="n">
-        <v>26.25799999999998</v>
+        <v>-304572.940429788</v>
       </c>
       <c r="H13" t="n">
-        <v>27.17216666666665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.19</v>
+        <v>26.9</v>
       </c>
       <c r="C14" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>26.19</v>
+        <v>26.9</v>
       </c>
       <c r="F14" t="n">
-        <v>12934.2072</v>
+        <v>555</v>
       </c>
       <c r="G14" t="n">
-        <v>26.24799999999998</v>
+        <v>-304017.940429788</v>
       </c>
       <c r="H14" t="n">
-        <v>27.17383333333332</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.29</v>
+        <v>26.98</v>
       </c>
       <c r="C15" t="n">
-        <v>25.95</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>26.29</v>
+        <v>27.01</v>
       </c>
       <c r="E15" t="n">
-        <v>25.95</v>
+        <v>26.98</v>
       </c>
       <c r="F15" t="n">
-        <v>11202.5355</v>
+        <v>9712.526900000001</v>
       </c>
       <c r="G15" t="n">
-        <v>26.20466666666664</v>
+        <v>-304017.940429788</v>
       </c>
       <c r="H15" t="n">
-        <v>27.16516666666665</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.93</v>
+        <v>26.99</v>
       </c>
       <c r="C16" t="n">
-        <v>26.18</v>
+        <v>27.01</v>
       </c>
       <c r="D16" t="n">
-        <v>26.18</v>
+        <v>27.01</v>
       </c>
       <c r="E16" t="n">
-        <v>25.82</v>
+        <v>26.99</v>
       </c>
       <c r="F16" t="n">
-        <v>138245.0398</v>
+        <v>32979.568</v>
       </c>
       <c r="G16" t="n">
-        <v>26.21466666666664</v>
+        <v>-271038.372429788</v>
       </c>
       <c r="H16" t="n">
-        <v>27.16216666666665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.18</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>26.24</v>
+        <v>27.01</v>
       </c>
       <c r="D17" t="n">
-        <v>26.28</v>
+        <v>27.01</v>
       </c>
       <c r="E17" t="n">
-        <v>25.84</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>18992.419</v>
+        <v>3159.1216</v>
       </c>
       <c r="G17" t="n">
-        <v>26.20066666666665</v>
+        <v>-271038.372429788</v>
       </c>
       <c r="H17" t="n">
-        <v>27.15816666666665</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>27.01</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +999,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>11335.4005</v>
+        <v>78</v>
       </c>
       <c r="G18" t="n">
-        <v>26.19333333333331</v>
+        <v>-271116.372429788</v>
       </c>
       <c r="H18" t="n">
-        <v>27.15266666666665</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1038,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>13816.1082</v>
+        <v>94.05629999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>26.19199999999998</v>
+        <v>-271116.372429788</v>
       </c>
       <c r="H19" t="n">
-        <v>27.14666666666665</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1079,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.23</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>26.23</v>
+        <v>27.01</v>
       </c>
       <c r="D20" t="n">
-        <v>26.23</v>
+        <v>27.01</v>
       </c>
       <c r="E20" t="n">
-        <v>26.23</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>12288</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>26.18999999999998</v>
+        <v>-271095.372429788</v>
       </c>
       <c r="H20" t="n">
-        <v>27.13349999999999</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1120,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.01</v>
+        <v>26.51</v>
       </c>
       <c r="C21" t="n">
-        <v>26.01</v>
+        <v>26.8</v>
       </c>
       <c r="D21" t="n">
-        <v>26.59</v>
+        <v>26.9</v>
       </c>
       <c r="E21" t="n">
-        <v>26.01</v>
+        <v>26.31</v>
       </c>
       <c r="F21" t="n">
-        <v>81825.6323</v>
+        <v>45712.31</v>
       </c>
       <c r="G21" t="n">
-        <v>26.16133333333331</v>
+        <v>-316807.682429788</v>
       </c>
       <c r="H21" t="n">
-        <v>27.08733333333332</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>27.01</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1161,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.01</v>
+        <v>26.44</v>
       </c>
       <c r="C22" t="n">
-        <v>26.29</v>
+        <v>26.79</v>
       </c>
       <c r="D22" t="n">
-        <v>26.29</v>
+        <v>26.79</v>
       </c>
       <c r="E22" t="n">
-        <v>26.01</v>
+        <v>26.44</v>
       </c>
       <c r="F22" t="n">
-        <v>6929</v>
+        <v>3188.9896</v>
       </c>
       <c r="G22" t="n">
-        <v>26.18733333333332</v>
+        <v>-319996.672029788</v>
       </c>
       <c r="H22" t="n">
-        <v>27.02749999999999</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>26.8</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1202,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.03</v>
+        <v>26.89</v>
       </c>
       <c r="C23" t="n">
-        <v>26.19</v>
+        <v>26.34</v>
       </c>
       <c r="D23" t="n">
-        <v>26.32</v>
+        <v>26.89</v>
       </c>
       <c r="E23" t="n">
-        <v>25.94</v>
+        <v>26.34</v>
       </c>
       <c r="F23" t="n">
-        <v>51206.4641</v>
+        <v>79261.00810000001</v>
       </c>
       <c r="G23" t="n">
-        <v>26.18866666666665</v>
+        <v>-399257.680129788</v>
       </c>
       <c r="H23" t="n">
-        <v>26.96583333333332</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1241,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.05</v>
+        <v>26.67</v>
       </c>
       <c r="C24" t="n">
-        <v>26.05</v>
+        <v>26.32</v>
       </c>
       <c r="D24" t="n">
-        <v>26.05</v>
+        <v>26.77</v>
       </c>
       <c r="E24" t="n">
-        <v>26.05</v>
+        <v>26.32</v>
       </c>
       <c r="F24" t="n">
-        <v>4683.9775</v>
+        <v>11433.0589</v>
       </c>
       <c r="G24" t="n">
-        <v>26.17199999999998</v>
+        <v>-410690.739029788</v>
       </c>
       <c r="H24" t="n">
-        <v>26.91066666666665</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1280,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.19</v>
+        <v>26.88</v>
       </c>
       <c r="C25" t="n">
-        <v>26.1</v>
+        <v>26.88</v>
       </c>
       <c r="D25" t="n">
-        <v>26.19</v>
+        <v>26.88</v>
       </c>
       <c r="E25" t="n">
-        <v>26.1</v>
+        <v>26.88</v>
       </c>
       <c r="F25" t="n">
-        <v>7353.5602</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>26.16599999999999</v>
+        <v>-410668.739029788</v>
       </c>
       <c r="H25" t="n">
-        <v>26.85799999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1319,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.06</v>
+        <v>26.5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.05</v>
+        <v>26.78</v>
       </c>
       <c r="D26" t="n">
-        <v>26.06</v>
+        <v>26.78</v>
       </c>
       <c r="E26" t="n">
-        <v>26.05</v>
+        <v>26.02</v>
       </c>
       <c r="F26" t="n">
-        <v>1331.6842</v>
+        <v>72583.08900000001</v>
       </c>
       <c r="G26" t="n">
-        <v>26.15666666666665</v>
+        <v>-483251.828029788</v>
       </c>
       <c r="H26" t="n">
-        <v>26.80116666666665</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1358,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.05</v>
+        <v>26.49</v>
       </c>
       <c r="C27" t="n">
-        <v>25.82</v>
+        <v>26.67</v>
       </c>
       <c r="D27" t="n">
-        <v>26.05</v>
+        <v>26.78</v>
       </c>
       <c r="E27" t="n">
-        <v>25.82</v>
+        <v>26.45</v>
       </c>
       <c r="F27" t="n">
-        <v>59200.6915</v>
+        <v>17113.0528</v>
       </c>
       <c r="G27" t="n">
-        <v>26.13866666666665</v>
+        <v>-500364.880829788</v>
       </c>
       <c r="H27" t="n">
-        <v>26.73149999999998</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1397,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.93</v>
+        <v>26.35</v>
       </c>
       <c r="C28" t="n">
-        <v>26.13</v>
+        <v>26.45</v>
       </c>
       <c r="D28" t="n">
-        <v>26.13</v>
+        <v>26.59</v>
       </c>
       <c r="E28" t="n">
-        <v>25.79</v>
+        <v>26.35</v>
       </c>
       <c r="F28" t="n">
-        <v>16085.5204</v>
+        <v>11155.5</v>
       </c>
       <c r="G28" t="n">
-        <v>26.13466666666665</v>
+        <v>-511520.380829788</v>
       </c>
       <c r="H28" t="n">
-        <v>26.69499999999999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1436,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.04</v>
+        <v>26.45</v>
       </c>
       <c r="C29" t="n">
-        <v>26.04</v>
+        <v>26.6</v>
       </c>
       <c r="D29" t="n">
-        <v>26.04</v>
+        <v>26.6</v>
       </c>
       <c r="E29" t="n">
-        <v>26.04</v>
+        <v>26.45</v>
       </c>
       <c r="F29" t="n">
-        <v>7226.5485</v>
+        <v>28608.5481</v>
       </c>
       <c r="G29" t="n">
-        <v>26.11733333333332</v>
+        <v>-482911.832729788</v>
       </c>
       <c r="H29" t="n">
-        <v>26.66049999999999</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>26.45</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1477,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.72</v>
+        <v>26.45</v>
       </c>
       <c r="C30" t="n">
-        <v>25.92</v>
+        <v>26.03</v>
       </c>
       <c r="D30" t="n">
-        <v>25.93</v>
+        <v>26.45</v>
       </c>
       <c r="E30" t="n">
-        <v>25.72</v>
+        <v>26.03</v>
       </c>
       <c r="F30" t="n">
-        <v>22022.9756</v>
+        <v>29680.547</v>
       </c>
       <c r="G30" t="n">
-        <v>26.11533333333332</v>
+        <v>-512592.379729788</v>
       </c>
       <c r="H30" t="n">
-        <v>26.60199999999999</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1516,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.03</v>
+        <v>26.3</v>
       </c>
       <c r="C31" t="n">
-        <v>26.03</v>
+        <v>26.45</v>
       </c>
       <c r="D31" t="n">
-        <v>26.03</v>
+        <v>26.45</v>
       </c>
       <c r="E31" t="n">
-        <v>26.03</v>
+        <v>26.25</v>
       </c>
       <c r="F31" t="n">
-        <v>13726.3213</v>
+        <v>39777.0806</v>
       </c>
       <c r="G31" t="n">
-        <v>26.10533333333332</v>
+        <v>-472815.299129788</v>
       </c>
       <c r="H31" t="n">
-        <v>26.53933333333332</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1555,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.8</v>
+        <v>26.35</v>
       </c>
       <c r="C32" t="n">
-        <v>26.03</v>
+        <v>26.35</v>
       </c>
       <c r="D32" t="n">
-        <v>26.03</v>
+        <v>26.35</v>
       </c>
       <c r="E32" t="n">
-        <v>25.62</v>
+        <v>26.35</v>
       </c>
       <c r="F32" t="n">
-        <v>43263.2443</v>
+        <v>47592.3409</v>
       </c>
       <c r="G32" t="n">
-        <v>26.09133333333333</v>
+        <v>-520407.640029788</v>
       </c>
       <c r="H32" t="n">
-        <v>26.50649999999998</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1594,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.9</v>
+        <v>26.44</v>
       </c>
       <c r="C33" t="n">
-        <v>25.93</v>
+        <v>26.26</v>
       </c>
       <c r="D33" t="n">
-        <v>26.03</v>
+        <v>26.44</v>
       </c>
       <c r="E33" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F33" t="n">
-        <v>116910.0863</v>
+        <v>10822</v>
       </c>
       <c r="G33" t="n">
-        <v>26.07066666666666</v>
+        <v>-531229.640029788</v>
       </c>
       <c r="H33" t="n">
-        <v>26.47216666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1633,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.07</v>
+        <v>26.26</v>
       </c>
       <c r="C34" t="n">
-        <v>26.09</v>
+        <v>26.26</v>
       </c>
       <c r="D34" t="n">
-        <v>26.09</v>
+        <v>26.26</v>
       </c>
       <c r="E34" t="n">
-        <v>26.07</v>
+        <v>26.26</v>
       </c>
       <c r="F34" t="n">
-        <v>41143.9609</v>
+        <v>12000</v>
       </c>
       <c r="G34" t="n">
-        <v>26.06066666666666</v>
+        <v>-531229.640029788</v>
       </c>
       <c r="H34" t="n">
-        <v>26.45349999999998</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1672,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.09</v>
+        <v>26.21</v>
       </c>
       <c r="C35" t="n">
-        <v>26.1</v>
+        <v>26.44</v>
       </c>
       <c r="D35" t="n">
-        <v>26.1</v>
+        <v>26.45</v>
       </c>
       <c r="E35" t="n">
-        <v>26.09</v>
+        <v>26.21</v>
       </c>
       <c r="F35" t="n">
-        <v>7438.8919</v>
+        <v>30000</v>
       </c>
       <c r="G35" t="n">
-        <v>26.05199999999999</v>
+        <v>-501229.640029788</v>
       </c>
       <c r="H35" t="n">
-        <v>26.43349999999998</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1711,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.14</v>
+        <v>26.13</v>
       </c>
       <c r="C36" t="n">
-        <v>26.15</v>
+        <v>25.9</v>
       </c>
       <c r="D36" t="n">
-        <v>26.15</v>
+        <v>26.3</v>
       </c>
       <c r="E36" t="n">
-        <v>26.14</v>
+        <v>25.9</v>
       </c>
       <c r="F36" t="n">
-        <v>3413.5852</v>
+        <v>78521.8135</v>
       </c>
       <c r="G36" t="n">
-        <v>26.06133333333332</v>
+        <v>-579751.4535297881</v>
       </c>
       <c r="H36" t="n">
-        <v>26.41916666666665</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1750,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C37" t="n">
-        <v>26.08</v>
+        <v>26.17</v>
       </c>
       <c r="D37" t="n">
-        <v>26.1</v>
+        <v>26.17</v>
       </c>
       <c r="E37" t="n">
-        <v>26.08</v>
+        <v>25.9</v>
       </c>
       <c r="F37" t="n">
-        <v>11195.3244</v>
+        <v>58539.824</v>
       </c>
       <c r="G37" t="n">
-        <v>26.04733333333332</v>
+        <v>-521211.629529788</v>
       </c>
       <c r="H37" t="n">
-        <v>26.40383333333332</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1789,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26.07</v>
+        <v>26.27</v>
       </c>
       <c r="C38" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D38" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E38" t="n">
-        <v>26.07</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>17426.6843</v>
+        <v>2670.2681</v>
       </c>
       <c r="G38" t="n">
-        <v>26.04133333333332</v>
+        <v>-518541.3614297881</v>
       </c>
       <c r="H38" t="n">
-        <v>26.38866666666665</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1828,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="D39" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="E39" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="F39" t="n">
-        <v>12166.7076</v>
+        <v>2067</v>
       </c>
       <c r="G39" t="n">
-        <v>26.03799999999999</v>
+        <v>-520608.3614297881</v>
       </c>
       <c r="H39" t="n">
-        <v>26.37199999999998</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1867,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="D40" t="n">
-        <v>26.21</v>
+        <v>26.19</v>
       </c>
       <c r="E40" t="n">
-        <v>25.72</v>
+        <v>26.19</v>
       </c>
       <c r="F40" t="n">
-        <v>243056.316</v>
+        <v>450</v>
       </c>
       <c r="G40" t="n">
-        <v>26.03133333333332</v>
+        <v>-520608.3614297881</v>
       </c>
       <c r="H40" t="n">
-        <v>26.35533333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +1906,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>26.09</v>
       </c>
       <c r="C41" t="n">
         <v>26.09</v>
@@ -1929,27 +1915,28 @@
         <v>26.09</v>
       </c>
       <c r="E41" t="n">
-        <v>25.99</v>
+        <v>26.09</v>
       </c>
       <c r="F41" t="n">
-        <v>25346.6549</v>
+        <v>1250</v>
       </c>
       <c r="G41" t="n">
-        <v>26.03399999999998</v>
+        <v>-521858.3614297881</v>
       </c>
       <c r="H41" t="n">
-        <v>26.34216666666665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1945,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.9</v>
+        <v>26.19</v>
       </c>
       <c r="C42" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="D42" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="E42" t="n">
-        <v>25.9</v>
+        <v>26.19</v>
       </c>
       <c r="F42" t="n">
-        <v>10846.4589</v>
+        <v>3252.5522</v>
       </c>
       <c r="G42" t="n">
-        <v>26.04599999999999</v>
+        <v>-518605.8092297881</v>
       </c>
       <c r="H42" t="n">
-        <v>26.32549999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1984,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="C43" t="n">
-        <v>26.16</v>
+        <v>26.3</v>
       </c>
       <c r="D43" t="n">
-        <v>26.16</v>
+        <v>26.3</v>
       </c>
       <c r="E43" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="F43" t="n">
-        <v>10038.9375</v>
+        <v>12934.2072</v>
       </c>
       <c r="G43" t="n">
-        <v>26.04799999999999</v>
+        <v>-505671.6020297881</v>
       </c>
       <c r="H43" t="n">
-        <v>26.31499999999998</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2023,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.81</v>
+        <v>26.29</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>25.95</v>
       </c>
       <c r="D44" t="n">
-        <v>26</v>
+        <v>26.29</v>
       </c>
       <c r="E44" t="n">
-        <v>25.81</v>
+        <v>25.95</v>
       </c>
       <c r="F44" t="n">
-        <v>36934.1654</v>
+        <v>11202.5355</v>
       </c>
       <c r="G44" t="n">
-        <v>26.04533333333332</v>
+        <v>-516874.1375297881</v>
       </c>
       <c r="H44" t="n">
-        <v>26.30366666666665</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2062,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.99</v>
+        <v>25.93</v>
       </c>
       <c r="C45" t="n">
-        <v>25.7</v>
+        <v>26.18</v>
       </c>
       <c r="D45" t="n">
-        <v>25.99</v>
+        <v>26.18</v>
       </c>
       <c r="E45" t="n">
-        <v>25.7</v>
+        <v>25.82</v>
       </c>
       <c r="F45" t="n">
-        <v>15290.2869</v>
+        <v>138245.0398</v>
       </c>
       <c r="G45" t="n">
-        <v>26.03066666666665</v>
+        <v>-378629.097729788</v>
       </c>
       <c r="H45" t="n">
-        <v>26.28199999999998</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2101,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.89</v>
+        <v>26.18</v>
       </c>
       <c r="C46" t="n">
-        <v>25.9</v>
+        <v>26.24</v>
       </c>
       <c r="D46" t="n">
-        <v>25.9</v>
+        <v>26.28</v>
       </c>
       <c r="E46" t="n">
-        <v>25.89</v>
+        <v>25.84</v>
       </c>
       <c r="F46" t="n">
-        <v>4259.3304</v>
+        <v>18992.419</v>
       </c>
       <c r="G46" t="n">
-        <v>26.02199999999998</v>
+        <v>-359636.6787297881</v>
       </c>
       <c r="H46" t="n">
-        <v>26.26366666666665</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2140,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.7</v>
+        <v>26.24</v>
       </c>
       <c r="C47" t="n">
-        <v>25.9</v>
+        <v>26.24</v>
       </c>
       <c r="D47" t="n">
-        <v>25.9</v>
+        <v>26.24</v>
       </c>
       <c r="E47" t="n">
-        <v>25.7</v>
+        <v>26.24</v>
       </c>
       <c r="F47" t="n">
-        <v>4810.3751</v>
+        <v>11335.4005</v>
       </c>
       <c r="G47" t="n">
-        <v>26.01333333333331</v>
+        <v>-359636.6787297881</v>
       </c>
       <c r="H47" t="n">
-        <v>26.24516666666665</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2179,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="C48" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="D48" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="E48" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="F48" t="n">
-        <v>7828.3484</v>
+        <v>13816.1082</v>
       </c>
       <c r="G48" t="n">
-        <v>26.01066666666664</v>
+        <v>-359636.6787297881</v>
       </c>
       <c r="H48" t="n">
-        <v>26.22649999999999</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2218,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.8</v>
+        <v>26.23</v>
       </c>
       <c r="C49" t="n">
-        <v>25.87</v>
+        <v>26.23</v>
       </c>
       <c r="D49" t="n">
-        <v>25.87</v>
+        <v>26.23</v>
       </c>
       <c r="E49" t="n">
-        <v>25.8</v>
+        <v>26.23</v>
       </c>
       <c r="F49" t="n">
-        <v>64310.8052</v>
+        <v>12288</v>
       </c>
       <c r="G49" t="n">
-        <v>25.99599999999998</v>
+        <v>-371924.6787297881</v>
       </c>
       <c r="H49" t="n">
-        <v>26.20766666666665</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2257,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.7</v>
+        <v>26.01</v>
       </c>
       <c r="C50" t="n">
-        <v>25.84</v>
+        <v>26.01</v>
       </c>
       <c r="D50" t="n">
-        <v>25.84</v>
+        <v>26.59</v>
       </c>
       <c r="E50" t="n">
-        <v>25.7</v>
+        <v>26.01</v>
       </c>
       <c r="F50" t="n">
-        <v>3950.7643</v>
+        <v>81825.6323</v>
       </c>
       <c r="G50" t="n">
-        <v>25.97866666666664</v>
+        <v>-453750.311029788</v>
       </c>
       <c r="H50" t="n">
-        <v>26.18833333333332</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2296,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.89</v>
+        <v>26.01</v>
       </c>
       <c r="C51" t="n">
-        <v>25.61</v>
+        <v>26.29</v>
       </c>
       <c r="D51" t="n">
-        <v>25.89</v>
+        <v>26.29</v>
       </c>
       <c r="E51" t="n">
-        <v>25.61</v>
+        <v>26.01</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>6929</v>
       </c>
       <c r="G51" t="n">
-        <v>25.94266666666665</v>
+        <v>-446821.311029788</v>
       </c>
       <c r="H51" t="n">
-        <v>26.16499999999998</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2335,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="C52" t="n">
-        <v>25.84</v>
+        <v>26.19</v>
       </c>
       <c r="D52" t="n">
-        <v>25.84</v>
+        <v>26.32</v>
       </c>
       <c r="E52" t="n">
-        <v>25.84</v>
+        <v>25.94</v>
       </c>
       <c r="F52" t="n">
-        <v>4800</v>
+        <v>51206.4641</v>
       </c>
       <c r="G52" t="n">
-        <v>25.92666666666664</v>
+        <v>-498027.775129788</v>
       </c>
       <c r="H52" t="n">
-        <v>26.14899999999998</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2374,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.6</v>
+        <v>26.05</v>
       </c>
       <c r="C53" t="n">
-        <v>25.8</v>
+        <v>26.05</v>
       </c>
       <c r="D53" t="n">
-        <v>25.83</v>
+        <v>26.05</v>
       </c>
       <c r="E53" t="n">
-        <v>25.5</v>
+        <v>26.05</v>
       </c>
       <c r="F53" t="n">
-        <v>17183.0116</v>
+        <v>4683.9775</v>
       </c>
       <c r="G53" t="n">
-        <v>25.90666666666664</v>
+        <v>-502711.752629788</v>
       </c>
       <c r="H53" t="n">
-        <v>26.13249999999998</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2413,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.5</v>
+        <v>26.19</v>
       </c>
       <c r="C54" t="n">
-        <v>25.84</v>
+        <v>26.1</v>
       </c>
       <c r="D54" t="n">
-        <v>25.84</v>
+        <v>26.19</v>
       </c>
       <c r="E54" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="F54" t="n">
-        <v>21203.724</v>
+        <v>7353.5602</v>
       </c>
       <c r="G54" t="n">
-        <v>25.89599999999998</v>
+        <v>-495358.192429788</v>
       </c>
       <c r="H54" t="n">
-        <v>26.12416666666665</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2452,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.5</v>
+        <v>26.06</v>
       </c>
       <c r="C55" t="n">
-        <v>25.31</v>
+        <v>26.05</v>
       </c>
       <c r="D55" t="n">
-        <v>25.5</v>
+        <v>26.06</v>
       </c>
       <c r="E55" t="n">
-        <v>25.31</v>
+        <v>26.05</v>
       </c>
       <c r="F55" t="n">
-        <v>74108.60060000001</v>
+        <v>1331.6842</v>
       </c>
       <c r="G55" t="n">
-        <v>25.84999999999998</v>
+        <v>-496689.876629788</v>
       </c>
       <c r="H55" t="n">
-        <v>26.10733333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2491,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.7</v>
+        <v>26.05</v>
       </c>
       <c r="C56" t="n">
-        <v>25.43</v>
+        <v>25.82</v>
       </c>
       <c r="D56" t="n">
-        <v>25.8</v>
+        <v>26.05</v>
       </c>
       <c r="E56" t="n">
-        <v>25.43</v>
+        <v>25.82</v>
       </c>
       <c r="F56" t="n">
-        <v>22796.0207</v>
+        <v>59200.6915</v>
       </c>
       <c r="G56" t="n">
-        <v>25.80599999999998</v>
+        <v>-555890.568129788</v>
       </c>
       <c r="H56" t="n">
-        <v>26.08316666666665</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2530,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.43</v>
+        <v>25.93</v>
       </c>
       <c r="C57" t="n">
-        <v>25.89</v>
+        <v>26.13</v>
       </c>
       <c r="D57" t="n">
-        <v>25.89</v>
+        <v>26.13</v>
       </c>
       <c r="E57" t="n">
-        <v>25.43</v>
+        <v>25.79</v>
       </c>
       <c r="F57" t="n">
-        <v>14469</v>
+        <v>16085.5204</v>
       </c>
       <c r="G57" t="n">
-        <v>25.79866666666664</v>
+        <v>-539805.047729788</v>
       </c>
       <c r="H57" t="n">
-        <v>26.06833333333332</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2569,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.7</v>
+        <v>26.04</v>
       </c>
       <c r="C58" t="n">
-        <v>25.7</v>
+        <v>26.04</v>
       </c>
       <c r="D58" t="n">
-        <v>25.79</v>
+        <v>26.04</v>
       </c>
       <c r="E58" t="n">
-        <v>25.69</v>
+        <v>26.04</v>
       </c>
       <c r="F58" t="n">
-        <v>7200</v>
+        <v>7226.5485</v>
       </c>
       <c r="G58" t="n">
-        <v>25.76799999999998</v>
+        <v>-547031.596229788</v>
       </c>
       <c r="H58" t="n">
-        <v>26.05216666666665</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,40 +2608,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.8</v>
+        <v>25.72</v>
       </c>
       <c r="C59" t="n">
-        <v>25.8</v>
+        <v>25.92</v>
       </c>
       <c r="D59" t="n">
-        <v>25.8</v>
+        <v>25.93</v>
       </c>
       <c r="E59" t="n">
-        <v>25.8</v>
+        <v>25.72</v>
       </c>
       <c r="F59" t="n">
-        <v>212.5074</v>
+        <v>22022.9756</v>
       </c>
       <c r="G59" t="n">
-        <v>25.75466666666664</v>
+        <v>-569054.571829788</v>
       </c>
       <c r="H59" t="n">
-        <v>26.04133333333332</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L59" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,44 +2647,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.52</v>
+        <v>26.03</v>
       </c>
       <c r="C60" t="n">
-        <v>25.87</v>
+        <v>26.03</v>
       </c>
       <c r="D60" t="n">
-        <v>25.97</v>
+        <v>26.03</v>
       </c>
       <c r="E60" t="n">
-        <v>25.52</v>
+        <v>26.03</v>
       </c>
       <c r="F60" t="n">
-        <v>10735.2409</v>
+        <v>13726.3213</v>
       </c>
       <c r="G60" t="n">
-        <v>25.76599999999998</v>
+        <v>-555328.2505297881</v>
       </c>
       <c r="H60" t="n">
-        <v>26.02916666666665</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L60" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,44 +2686,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.77</v>
+        <v>25.8</v>
       </c>
       <c r="C61" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="D61" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="E61" t="n">
-        <v>25.77</v>
+        <v>25.62</v>
       </c>
       <c r="F61" t="n">
-        <v>20302.0196</v>
+        <v>43263.2443</v>
       </c>
       <c r="G61" t="n">
-        <v>25.76199999999998</v>
+        <v>-555328.2505297881</v>
       </c>
       <c r="H61" t="n">
-        <v>26.02599999999998</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="L61" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2738,44 +2725,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.84</v>
+        <v>25.9</v>
       </c>
       <c r="C62" t="n">
-        <v>25.84</v>
+        <v>25.93</v>
       </c>
       <c r="D62" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="E62" t="n">
-        <v>25.84</v>
+        <v>25.9</v>
       </c>
       <c r="F62" t="n">
-        <v>20460.154</v>
+        <v>116910.0863</v>
       </c>
       <c r="G62" t="n">
-        <v>25.75799999999998</v>
+        <v>-672238.3368297881</v>
       </c>
       <c r="H62" t="n">
-        <v>26.01583333333331</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="L62" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,44 +2764,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.9</v>
+        <v>26.07</v>
       </c>
       <c r="C63" t="n">
-        <v>25.8</v>
+        <v>26.09</v>
       </c>
       <c r="D63" t="n">
-        <v>25.9</v>
+        <v>26.09</v>
       </c>
       <c r="E63" t="n">
-        <v>25.8</v>
+        <v>26.07</v>
       </c>
       <c r="F63" t="n">
-        <v>20259.302</v>
+        <v>41143.9609</v>
       </c>
       <c r="G63" t="n">
-        <v>25.75199999999998</v>
+        <v>-631094.3759297881</v>
       </c>
       <c r="H63" t="n">
-        <v>26.00666666666665</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="L63" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,44 +2803,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25.61</v>
+        <v>26.09</v>
       </c>
       <c r="C64" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="D64" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="E64" t="n">
-        <v>25.6</v>
+        <v>26.09</v>
       </c>
       <c r="F64" t="n">
-        <v>18939.7804</v>
+        <v>7438.8919</v>
       </c>
       <c r="G64" t="n">
-        <v>25.74733333333331</v>
+        <v>-623655.4840297881</v>
       </c>
       <c r="H64" t="n">
-        <v>25.99899999999998</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L64" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2876,44 +2842,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25.8</v>
+        <v>26.14</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>26.15</v>
       </c>
       <c r="D65" t="n">
-        <v>26</v>
+        <v>26.15</v>
       </c>
       <c r="E65" t="n">
-        <v>25.8</v>
+        <v>26.14</v>
       </c>
       <c r="F65" t="n">
-        <v>40756.1667</v>
+        <v>3413.5852</v>
       </c>
       <c r="G65" t="n">
-        <v>25.75799999999998</v>
+        <v>-620241.8988297881</v>
       </c>
       <c r="H65" t="n">
-        <v>25.99466666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L65" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,44 +2881,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>26.08</v>
       </c>
       <c r="D66" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>26.08</v>
       </c>
       <c r="F66" t="n">
-        <v>1995.9426</v>
+        <v>11195.3244</v>
       </c>
       <c r="G66" t="n">
-        <v>25.78399999999998</v>
+        <v>-631437.2232297881</v>
       </c>
       <c r="H66" t="n">
-        <v>25.98733333333331</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>26</v>
-      </c>
-      <c r="L66" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,44 +2920,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.89</v>
+        <v>26.07</v>
       </c>
       <c r="C67" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D67" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E67" t="n">
-        <v>25.89</v>
+        <v>26.07</v>
       </c>
       <c r="F67" t="n">
-        <v>5215.0036</v>
+        <v>17426.6843</v>
       </c>
       <c r="G67" t="n">
-        <v>25.78799999999998</v>
+        <v>-614010.5389297882</v>
       </c>
       <c r="H67" t="n">
-        <v>25.98733333333331</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>26</v>
-      </c>
-      <c r="L67" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,44 +2959,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.28</v>
+        <v>26</v>
       </c>
       <c r="C68" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
-        <v>26.29</v>
+        <v>26</v>
       </c>
       <c r="E68" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="F68" t="n">
-        <v>131200</v>
+        <v>12166.7076</v>
       </c>
       <c r="G68" t="n">
-        <v>25.78999999999998</v>
+        <v>-626177.2465297881</v>
       </c>
       <c r="H68" t="n">
-        <v>25.98166666666664</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L68" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,44 +2998,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="C69" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>25.83</v>
+        <v>26.21</v>
       </c>
       <c r="E69" t="n">
-        <v>25.83</v>
+        <v>25.72</v>
       </c>
       <c r="F69" t="n">
-        <v>5749.128</v>
+        <v>243056.316</v>
       </c>
       <c r="G69" t="n">
-        <v>25.78933333333331</v>
+        <v>-626177.2465297881</v>
       </c>
       <c r="H69" t="n">
-        <v>25.97383333333331</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="L69" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3106,44 +3037,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="E70" t="n">
         <v>25.99</v>
       </c>
-      <c r="D70" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="E70" t="n">
-        <v>25.83</v>
-      </c>
       <c r="F70" t="n">
-        <v>7513.7433</v>
+        <v>25346.6549</v>
       </c>
       <c r="G70" t="n">
-        <v>25.83466666666665</v>
+        <v>-600830.5916297882</v>
       </c>
       <c r="H70" t="n">
-        <v>25.97049999999997</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="L70" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,7 +3076,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.99</v>
+        <v>25.9</v>
       </c>
       <c r="C71" t="n">
         <v>26</v>
@@ -3161,35 +3085,28 @@
         <v>26</v>
       </c>
       <c r="E71" t="n">
-        <v>25.99</v>
+        <v>25.9</v>
       </c>
       <c r="F71" t="n">
-        <v>1728.5185</v>
+        <v>10846.4589</v>
       </c>
       <c r="G71" t="n">
-        <v>25.87266666666665</v>
+        <v>-611677.0505297881</v>
       </c>
       <c r="H71" t="n">
-        <v>25.96733333333331</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="L71" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,44 +3115,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="C72" t="n">
-        <v>25.83</v>
+        <v>26.16</v>
       </c>
       <c r="D72" t="n">
-        <v>25.83</v>
+        <v>26.16</v>
       </c>
       <c r="E72" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="F72" t="n">
-        <v>21060.2299</v>
+        <v>10038.9375</v>
       </c>
       <c r="G72" t="n">
-        <v>25.86866666666664</v>
+        <v>-601638.1130297881</v>
       </c>
       <c r="H72" t="n">
-        <v>25.96299999999997</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>26</v>
-      </c>
-      <c r="L72" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,44 +3154,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.95</v>
+        <v>25.81</v>
       </c>
       <c r="C73" t="n">
-        <v>25.95</v>
+        <v>26</v>
       </c>
       <c r="D73" t="n">
-        <v>25.95</v>
+        <v>26</v>
       </c>
       <c r="E73" t="n">
-        <v>25.95</v>
+        <v>25.81</v>
       </c>
       <c r="F73" t="n">
-        <v>2620.7862</v>
+        <v>36934.1654</v>
       </c>
       <c r="G73" t="n">
-        <v>25.88533333333331</v>
+        <v>-638572.2784297881</v>
       </c>
       <c r="H73" t="n">
-        <v>25.95899999999997</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="L73" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,44 +3193,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.9</v>
+        <v>25.99</v>
       </c>
       <c r="C74" t="n">
-        <v>27.87</v>
+        <v>25.7</v>
       </c>
       <c r="D74" t="n">
-        <v>27.87</v>
+        <v>25.99</v>
       </c>
       <c r="E74" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F74" t="n">
-        <v>9405.365</v>
+        <v>15290.2869</v>
       </c>
       <c r="G74" t="n">
-        <v>26.02333333333331</v>
+        <v>-653862.565329788</v>
       </c>
       <c r="H74" t="n">
-        <v>25.98516666666664</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="L74" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,42 +3232,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26</v>
+        <v>25.89</v>
       </c>
       <c r="C75" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D75" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E75" t="n">
-        <v>26</v>
+        <v>25.89</v>
       </c>
       <c r="F75" t="n">
-        <v>6444.7403</v>
+        <v>4259.3304</v>
       </c>
       <c r="G75" t="n">
-        <v>26.04533333333331</v>
+        <v>-649603.234929788</v>
       </c>
       <c r="H75" t="n">
-        <v>25.98933333333331</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,42 +3271,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.28</v>
+        <v>25.7</v>
       </c>
       <c r="C76" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D76" t="n">
-        <v>26.59</v>
+        <v>25.9</v>
       </c>
       <c r="E76" t="n">
-        <v>26.28</v>
+        <v>25.7</v>
       </c>
       <c r="F76" t="n">
-        <v>132134.7259</v>
+        <v>4810.3751</v>
       </c>
       <c r="G76" t="n">
-        <v>26.07599999999998</v>
+        <v>-649603.234929788</v>
       </c>
       <c r="H76" t="n">
-        <v>25.9913333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,42 +3310,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.41</v>
+        <v>25.89</v>
       </c>
       <c r="C77" t="n">
-        <v>26.59</v>
+        <v>25.89</v>
       </c>
       <c r="D77" t="n">
-        <v>26.59</v>
+        <v>25.89</v>
       </c>
       <c r="E77" t="n">
-        <v>26.31</v>
+        <v>25.89</v>
       </c>
       <c r="F77" t="n">
-        <v>8481.588</v>
+        <v>7828.3484</v>
       </c>
       <c r="G77" t="n">
-        <v>26.12599999999998</v>
+        <v>-657431.5833297881</v>
       </c>
       <c r="H77" t="n">
-        <v>25.99716666666664</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,42 +3349,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="C78" t="n">
-        <v>26.1</v>
+        <v>25.87</v>
       </c>
       <c r="D78" t="n">
-        <v>26.7</v>
+        <v>25.87</v>
       </c>
       <c r="E78" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F78" t="n">
-        <v>81965.56299999999</v>
+        <v>64310.8052</v>
       </c>
       <c r="G78" t="n">
-        <v>26.14599999999998</v>
+        <v>-721742.388529788</v>
       </c>
       <c r="H78" t="n">
-        <v>25.9948333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,42 +3388,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.96</v>
+        <v>25.7</v>
       </c>
       <c r="C79" t="n">
-        <v>27.96</v>
+        <v>25.84</v>
       </c>
       <c r="D79" t="n">
-        <v>27.96</v>
+        <v>25.84</v>
       </c>
       <c r="E79" t="n">
-        <v>27.96</v>
+        <v>25.7</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>3950.7643</v>
       </c>
       <c r="G79" t="n">
-        <v>26.28999999999998</v>
+        <v>-725693.152829788</v>
       </c>
       <c r="H79" t="n">
-        <v>26.02349999999997</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,42 +3427,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.79</v>
+        <v>25.89</v>
       </c>
       <c r="C80" t="n">
-        <v>26.59</v>
+        <v>25.61</v>
       </c>
       <c r="D80" t="n">
-        <v>27.05</v>
+        <v>25.89</v>
       </c>
       <c r="E80" t="n">
-        <v>26.22</v>
+        <v>25.61</v>
       </c>
       <c r="F80" t="n">
-        <v>4225</v>
+        <v>50</v>
       </c>
       <c r="G80" t="n">
-        <v>26.32933333333331</v>
+        <v>-725743.152829788</v>
       </c>
       <c r="H80" t="n">
-        <v>26.02949999999997</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,42 +3466,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.12</v>
+        <v>25.84</v>
       </c>
       <c r="C81" t="n">
-        <v>26.49</v>
+        <v>25.84</v>
       </c>
       <c r="D81" t="n">
-        <v>26.49</v>
+        <v>25.84</v>
       </c>
       <c r="E81" t="n">
-        <v>26.12</v>
+        <v>25.84</v>
       </c>
       <c r="F81" t="n">
-        <v>45</v>
+        <v>4800</v>
       </c>
       <c r="G81" t="n">
-        <v>26.36199999999998</v>
+        <v>-720943.152829788</v>
       </c>
       <c r="H81" t="n">
-        <v>26.03749999999997</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,42 +3505,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="C82" t="n">
-        <v>26.11</v>
+        <v>25.8</v>
       </c>
       <c r="D82" t="n">
-        <v>26.3</v>
+        <v>25.83</v>
       </c>
       <c r="E82" t="n">
-        <v>26.11</v>
+        <v>25.5</v>
       </c>
       <c r="F82" t="n">
-        <v>33730.6654</v>
+        <v>17183.0116</v>
       </c>
       <c r="G82" t="n">
-        <v>26.37599999999998</v>
+        <v>-738126.164429788</v>
       </c>
       <c r="H82" t="n">
-        <v>26.03449999999997</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,42 +3544,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="C83" t="n">
-        <v>26.2</v>
+        <v>25.84</v>
       </c>
       <c r="D83" t="n">
-        <v>26.3</v>
+        <v>25.84</v>
       </c>
       <c r="E83" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="F83" t="n">
-        <v>15274.7208</v>
+        <v>21203.724</v>
       </c>
       <c r="G83" t="n">
-        <v>26.40066666666665</v>
+        <v>-716922.440429788</v>
       </c>
       <c r="H83" t="n">
-        <v>26.03466666666663</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,42 +3583,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C84" t="n">
-        <v>26.11</v>
+        <v>25.31</v>
       </c>
       <c r="D84" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="E84" t="n">
-        <v>26.11</v>
+        <v>25.31</v>
       </c>
       <c r="F84" t="n">
-        <v>16369.3826</v>
+        <v>74108.60060000001</v>
       </c>
       <c r="G84" t="n">
-        <v>26.41933333333332</v>
+        <v>-791031.041029788</v>
       </c>
       <c r="H84" t="n">
-        <v>26.03566666666663</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,44 +3622,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="C85" t="n">
-        <v>26.3</v>
+        <v>25.43</v>
       </c>
       <c r="D85" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="E85" t="n">
-        <v>26.3</v>
+        <v>25.43</v>
       </c>
       <c r="F85" t="n">
-        <v>5073.8796</v>
+        <v>22796.0207</v>
       </c>
       <c r="G85" t="n">
-        <v>26.43999999999998</v>
+        <v>-768235.020329788</v>
       </c>
       <c r="H85" t="n">
-        <v>26.03899999999997</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="L85" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,44 +3661,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.44</v>
+        <v>25.43</v>
       </c>
       <c r="C86" t="n">
-        <v>26.45</v>
+        <v>25.89</v>
       </c>
       <c r="D86" t="n">
-        <v>26.45</v>
+        <v>25.89</v>
       </c>
       <c r="E86" t="n">
-        <v>26.44</v>
+        <v>25.43</v>
       </c>
       <c r="F86" t="n">
-        <v>17269.8979</v>
+        <v>14469</v>
       </c>
       <c r="G86" t="n">
-        <v>26.46999999999998</v>
+        <v>-753766.020329788</v>
       </c>
       <c r="H86" t="n">
-        <v>26.04566666666663</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L86" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,44 +3700,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.52</v>
+        <v>25.7</v>
       </c>
       <c r="C87" t="n">
-        <v>26.52</v>
+        <v>25.7</v>
       </c>
       <c r="D87" t="n">
-        <v>26.52</v>
+        <v>25.79</v>
       </c>
       <c r="E87" t="n">
-        <v>26.52</v>
+        <v>25.69</v>
       </c>
       <c r="F87" t="n">
-        <v>15530.4947</v>
+        <v>7200</v>
       </c>
       <c r="G87" t="n">
-        <v>26.51599999999998</v>
+        <v>-760966.020329788</v>
       </c>
       <c r="H87" t="n">
-        <v>26.0573333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="L87" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,42 +3739,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.56</v>
+        <v>25.8</v>
       </c>
       <c r="C88" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="D88" t="n">
-        <v>26.88</v>
+        <v>25.8</v>
       </c>
       <c r="E88" t="n">
-        <v>26.56</v>
+        <v>25.8</v>
       </c>
       <c r="F88" t="n">
-        <v>66330.5724</v>
+        <v>212.5074</v>
       </c>
       <c r="G88" t="n">
-        <v>26.56599999999998</v>
+        <v>-760753.512929788</v>
       </c>
       <c r="H88" t="n">
-        <v>26.0668333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,42 +3778,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.61</v>
+        <v>25.52</v>
       </c>
       <c r="C89" t="n">
-        <v>26.7</v>
+        <v>25.87</v>
       </c>
       <c r="D89" t="n">
-        <v>26.7</v>
+        <v>25.97</v>
       </c>
       <c r="E89" t="n">
-        <v>26.61</v>
+        <v>25.52</v>
       </c>
       <c r="F89" t="n">
-        <v>11221.9467</v>
+        <v>10735.2409</v>
       </c>
       <c r="G89" t="n">
-        <v>26.48799999999998</v>
+        <v>-750018.272029788</v>
       </c>
       <c r="H89" t="n">
-        <v>26.0778333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,44 +3817,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.61</v>
+        <v>25.77</v>
       </c>
       <c r="C90" t="n">
-        <v>26.61</v>
+        <v>25.84</v>
       </c>
       <c r="D90" t="n">
-        <v>26.61</v>
+        <v>25.84</v>
       </c>
       <c r="E90" t="n">
-        <v>26.61</v>
+        <v>25.77</v>
       </c>
       <c r="F90" t="n">
-        <v>7440.811</v>
+        <v>20302.0196</v>
       </c>
       <c r="G90" t="n">
-        <v>26.51533333333332</v>
+        <v>-770320.291629788</v>
       </c>
       <c r="H90" t="n">
-        <v>26.0893333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L90" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,42 +3856,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.9</v>
+        <v>25.84</v>
       </c>
       <c r="C91" t="n">
-        <v>26.9</v>
+        <v>25.84</v>
       </c>
       <c r="D91" t="n">
-        <v>27</v>
+        <v>25.84</v>
       </c>
       <c r="E91" t="n">
-        <v>26.9</v>
+        <v>25.84</v>
       </c>
       <c r="F91" t="n">
-        <v>41760.2752</v>
+        <v>20460.154</v>
       </c>
       <c r="G91" t="n">
-        <v>26.55533333333331</v>
+        <v>-770320.291629788</v>
       </c>
       <c r="H91" t="n">
-        <v>26.1038333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,42 +3895,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.9</v>
+        <v>25.9</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="D92" t="n">
-        <v>27.1</v>
+        <v>25.9</v>
       </c>
       <c r="E92" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="F92" t="n">
-        <v>13982.3562</v>
+        <v>20259.302</v>
       </c>
       <c r="G92" t="n">
-        <v>26.58266666666665</v>
+        <v>-790579.593629788</v>
       </c>
       <c r="H92" t="n">
-        <v>26.11999999999997</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,42 +3934,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.63</v>
+        <v>25.61</v>
       </c>
       <c r="C93" t="n">
-        <v>26.61</v>
+        <v>25.8</v>
       </c>
       <c r="D93" t="n">
-        <v>26.63</v>
+        <v>25.8</v>
       </c>
       <c r="E93" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="F93" t="n">
-        <v>11873.8424</v>
+        <v>18939.7804</v>
       </c>
       <c r="G93" t="n">
-        <v>26.61666666666665</v>
+        <v>-790579.593629788</v>
       </c>
       <c r="H93" t="n">
-        <v>26.1313333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,42 +3973,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.61</v>
+        <v>25.8</v>
       </c>
       <c r="C94" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="D94" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>26.61</v>
+        <v>25.8</v>
       </c>
       <c r="F94" t="n">
-        <v>10105.9202</v>
+        <v>40756.1667</v>
       </c>
       <c r="G94" t="n">
-        <v>26.52666666666665</v>
+        <v>-749823.426929788</v>
       </c>
       <c r="H94" t="n">
-        <v>26.13999999999997</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,42 +4012,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="D95" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="E95" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="F95" t="n">
-        <v>12354.2602</v>
+        <v>1995.9426</v>
       </c>
       <c r="G95" t="n">
-        <v>26.52799999999998</v>
+        <v>-749823.426929788</v>
       </c>
       <c r="H95" t="n">
-        <v>26.14849999999996</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,42 +4051,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.88</v>
+        <v>25.89</v>
       </c>
       <c r="C96" t="n">
-        <v>26.88</v>
+        <v>25.9</v>
       </c>
       <c r="D96" t="n">
-        <v>26.88</v>
+        <v>25.9</v>
       </c>
       <c r="E96" t="n">
-        <v>26.88</v>
+        <v>25.89</v>
       </c>
       <c r="F96" t="n">
-        <v>19</v>
+        <v>5215.0036</v>
       </c>
       <c r="G96" t="n">
-        <v>26.55399999999998</v>
+        <v>-755038.430529788</v>
       </c>
       <c r="H96" t="n">
-        <v>26.16066666666663</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,42 +4090,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.7</v>
+        <v>26.28</v>
       </c>
       <c r="C97" t="n">
-        <v>26.7</v>
+        <v>25.83</v>
       </c>
       <c r="D97" t="n">
-        <v>26.7</v>
+        <v>26.29</v>
       </c>
       <c r="E97" t="n">
-        <v>26.7</v>
+        <v>25.83</v>
       </c>
       <c r="F97" t="n">
-        <v>5069.6808</v>
+        <v>131200</v>
       </c>
       <c r="G97" t="n">
-        <v>26.59333333333332</v>
+        <v>-886238.430529788</v>
       </c>
       <c r="H97" t="n">
-        <v>26.17099999999997</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,42 +4129,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.81</v>
+        <v>25.83</v>
       </c>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="D98" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="E98" t="n">
-        <v>26.81</v>
+        <v>25.83</v>
       </c>
       <c r="F98" t="n">
-        <v>48881.8076</v>
+        <v>5749.128</v>
       </c>
       <c r="G98" t="n">
-        <v>26.64666666666665</v>
+        <v>-886238.430529788</v>
       </c>
       <c r="H98" t="n">
-        <v>26.18599999999997</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,42 +4168,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="D99" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="E99" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="F99" t="n">
-        <v>1936.592592592593</v>
+        <v>7513.7433</v>
       </c>
       <c r="G99" t="n">
-        <v>26.70599999999998</v>
+        <v>-878724.687229788</v>
       </c>
       <c r="H99" t="n">
-        <v>26.20266666666663</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,42 +4207,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="C100" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="F100" t="n">
-        <v>33751.6951</v>
+        <v>1728.5185</v>
       </c>
       <c r="G100" t="n">
-        <v>26.75266666666665</v>
+        <v>-876996.168729788</v>
       </c>
       <c r="H100" t="n">
-        <v>26.2193333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,42 +4246,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="C101" t="n">
-        <v>27.16</v>
+        <v>25.83</v>
       </c>
       <c r="D101" t="n">
-        <v>27.16</v>
+        <v>25.83</v>
       </c>
       <c r="E101" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="F101" t="n">
-        <v>30359.0621146239</v>
+        <v>21060.2299</v>
       </c>
       <c r="G101" t="n">
-        <v>26.79999999999999</v>
+        <v>-898056.3986297881</v>
       </c>
       <c r="H101" t="n">
-        <v>26.23716666666663</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,42 +4285,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.03</v>
+        <v>25.95</v>
       </c>
       <c r="C102" t="n">
-        <v>26.61</v>
+        <v>25.95</v>
       </c>
       <c r="D102" t="n">
-        <v>27.03</v>
+        <v>25.95</v>
       </c>
       <c r="E102" t="n">
-        <v>26.61</v>
+        <v>25.95</v>
       </c>
       <c r="F102" t="n">
-        <v>48125</v>
+        <v>2620.7862</v>
       </c>
       <c r="G102" t="n">
-        <v>26.80599999999999</v>
+        <v>-895435.6124297881</v>
       </c>
       <c r="H102" t="n">
-        <v>26.2473333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,42 +4324,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.12</v>
+        <v>25.9</v>
       </c>
       <c r="C103" t="n">
-        <v>27.12</v>
+        <v>27.87</v>
       </c>
       <c r="D103" t="n">
-        <v>27.12</v>
+        <v>27.87</v>
       </c>
       <c r="E103" t="n">
-        <v>27.12</v>
+        <v>25.9</v>
       </c>
       <c r="F103" t="n">
-        <v>19</v>
+        <v>9405.365</v>
       </c>
       <c r="G103" t="n">
-        <v>26.83399999999999</v>
+        <v>-886030.2474297881</v>
       </c>
       <c r="H103" t="n">
-        <v>26.2633333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,42 +4363,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D104" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E104" t="n">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="F104" t="n">
-        <v>2129.3245</v>
+        <v>6444.7403</v>
       </c>
       <c r="G104" t="n">
-        <v>26.83399999999999</v>
+        <v>-892474.9877297881</v>
       </c>
       <c r="H104" t="n">
-        <v>26.27499999999997</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,42 +4402,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.7</v>
+        <v>26.28</v>
       </c>
       <c r="C105" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="D105" t="n">
-        <v>26.7</v>
+        <v>26.59</v>
       </c>
       <c r="E105" t="n">
-        <v>26.7</v>
+        <v>26.28</v>
       </c>
       <c r="F105" t="n">
-        <v>22479.6844</v>
+        <v>132134.7259</v>
       </c>
       <c r="G105" t="n">
-        <v>26.83999999999999</v>
+        <v>-760340.2618297881</v>
       </c>
       <c r="H105" t="n">
-        <v>26.29166666666663</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4708,44 +4441,1168 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="C106" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D106" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E106" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8481.588</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-751858.6738297881</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D107" t="n">
         <v>26.7</v>
       </c>
-      <c r="C106" t="n">
+      <c r="E107" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>81965.56299999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-833824.2368297881</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="C108" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="D108" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="E108" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-833804.2368297881</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="C109" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D109" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4225</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-838029.2368297881</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="C110" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="D110" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E110" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F110" t="n">
+        <v>45</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-838074.2368297881</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="D111" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>33730.6654</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-871804.902229788</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15274.7208</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-856530.181429788</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16369.3826</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-872899.564029788</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5073.8796</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-867825.684429788</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="C115" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="D115" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="E115" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17269.8979</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-850555.786529788</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="C116" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="D116" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="E116" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15530.4947</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-835025.291829788</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="C117" t="n">
         <v>26.7</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D117" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="F117" t="n">
+        <v>66330.5724</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-768694.7194297879</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C118" t="n">
         <v>26.7</v>
       </c>
-      <c r="E106" t="n">
+      <c r="D118" t="n">
         <v>26.7</v>
       </c>
-      <c r="F106" t="n">
+      <c r="E118" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11221.9467</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-768694.7194297879</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C119" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D119" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7440.811</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-776135.5304297879</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27</v>
+      </c>
+      <c r="E120" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>41760.2752</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-734375.2552297879</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>27</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13982.3562</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-720392.8990297879</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="C122" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D122" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="E122" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11873.8424</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-732266.7414297878</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C123" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D123" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="E123" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10105.9202</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-732266.7414297878</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C124" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D124" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="E124" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12354.2602</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-732266.7414297878</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D125" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E125" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="F125" t="n">
+        <v>19</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-732247.7414297878</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5069.6808</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-737317.4222297878</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="C127" t="n">
+        <v>27</v>
+      </c>
+      <c r="D127" t="n">
+        <v>27</v>
+      </c>
+      <c r="E127" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="F127" t="n">
+        <v>48881.8076</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-688435.6146297879</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27</v>
+      </c>
+      <c r="C128" t="n">
+        <v>27</v>
+      </c>
+      <c r="D128" t="n">
+        <v>27</v>
+      </c>
+      <c r="E128" t="n">
+        <v>27</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1936.592592592593</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-688435.6146297879</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27</v>
+      </c>
+      <c r="C129" t="n">
+        <v>27</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27</v>
+      </c>
+      <c r="E129" t="n">
+        <v>27</v>
+      </c>
+      <c r="F129" t="n">
+        <v>33751.6951</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-688435.6146297879</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>27</v>
+      </c>
+      <c r="C130" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="D130" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="E130" t="n">
+        <v>27</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30359.0621146239</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-658076.552515164</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="C131" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="E131" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F131" t="n">
+        <v>48125</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-706201.552515164</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="C132" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-706182.552515164</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2129.3245</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-708311.877015164</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22479.6844</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-708311.877015164</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F135" t="n">
         <v>2533.132</v>
       </c>
-      <c r="G106" t="n">
-        <v>26.82666666666665</v>
-      </c>
-      <c r="H106" t="n">
-        <v>26.30499999999996</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="L106" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="G135" t="n">
+        <v>-708311.877015164</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -993,6 +1013,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,6 +1053,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,6 +1137,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1155,6 +1179,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,6 +1221,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,6 +1261,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1274,6 +1301,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1313,6 +1341,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,6 +1381,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1391,6 +1421,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,6 +1461,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1471,6 +1503,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1510,6 +1543,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1549,6 +1583,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1588,6 +1623,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1627,6 +1663,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,6 +1703,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1705,6 +1743,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1744,6 +1783,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1783,6 +1823,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1822,6 +1863,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1861,6 +1903,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1900,6 +1943,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1939,6 +1983,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1978,6 +2023,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2017,6 +2063,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2056,6 +2103,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2095,6 +2143,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2134,6 +2183,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2173,6 +2223,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,6 +2263,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2251,6 +2303,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2290,6 +2343,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2329,6 +2383,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2368,6 +2423,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2407,6 +2463,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2446,6 +2503,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2485,6 +2543,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2524,6 +2583,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2563,6 +2623,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2602,6 +2663,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2641,6 +2703,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2680,6 +2743,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2719,6 +2783,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2758,6 +2823,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2797,6 +2863,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2836,6 +2903,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2875,6 +2943,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2914,6 +2983,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2953,6 +3023,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2992,6 +3063,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3031,6 +3103,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3070,6 +3143,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3109,6 +3183,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3148,6 +3223,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3187,6 +3263,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3226,6 +3303,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3265,6 +3343,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3304,6 +3383,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3343,6 +3423,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3382,6 +3463,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3421,6 +3503,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3460,6 +3543,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3499,6 +3583,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3538,6 +3623,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3577,6 +3663,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3616,6 +3703,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3655,6 +3743,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3694,6 +3783,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3733,6 +3823,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3772,6 +3863,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3811,6 +3903,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3850,6 +3943,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3889,6 +3983,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3928,6 +4023,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3967,6 +4063,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4006,6 +4103,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4045,6 +4143,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4084,6 +4183,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4123,6 +4223,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4162,6 +4263,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4201,6 +4303,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4240,6 +4343,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4279,6 +4383,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4318,6 +4423,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4357,6 +4463,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4396,6 +4503,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4435,6 +4543,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4474,6 +4583,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4513,6 +4623,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4552,6 +4663,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4591,6 +4703,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4630,6 +4743,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4669,6 +4783,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4708,6 +4823,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4747,6 +4863,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4786,6 +4903,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4825,6 +4943,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4864,6 +4983,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4903,6 +5023,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4942,6 +5063,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4981,6 +5103,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5020,6 +5143,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5059,6 +5183,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5098,6 +5223,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5137,6 +5263,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5176,6 +5303,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5215,6 +5343,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5254,6 +5383,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5293,6 +5423,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5332,6 +5463,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5371,6 +5503,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5410,6 +5543,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5449,6 +5583,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5488,6 +5623,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5527,6 +5663,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5566,6 +5703,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5605,6 +5743,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.99</v>
+        <v>26.08</v>
       </c>
       <c r="C2" t="n">
-        <v>27.99</v>
+        <v>26.08</v>
       </c>
       <c r="D2" t="n">
-        <v>28.5</v>
+        <v>26.08</v>
       </c>
       <c r="E2" t="n">
-        <v>27.98</v>
+        <v>26.08</v>
       </c>
       <c r="F2" t="n">
-        <v>301752.8151</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>-22463.37382978806</v>
+        <v>517436.8039279094</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.9</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>27.21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>27.21</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>155724.5127</v>
+        <v>7998.4703</v>
       </c>
       <c r="G3" t="n">
-        <v>-178187.8865297881</v>
+        <v>509438.3336279094</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.4</v>
+        <v>26.07</v>
       </c>
       <c r="C4" t="n">
-        <v>27.3</v>
+        <v>25.91</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6</v>
+        <v>26.18</v>
       </c>
       <c r="E4" t="n">
-        <v>26.89</v>
+        <v>25.91</v>
       </c>
       <c r="F4" t="n">
-        <v>194471.2708</v>
+        <v>39931</v>
       </c>
       <c r="G4" t="n">
-        <v>16283.38427021194</v>
+        <v>469507.3336279094</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.4</v>
+        <v>26.19</v>
       </c>
       <c r="C5" t="n">
-        <v>27.01</v>
+        <v>26.19</v>
       </c>
       <c r="D5" t="n">
-        <v>27.4</v>
+        <v>26.19</v>
       </c>
       <c r="E5" t="n">
-        <v>26.5</v>
+        <v>26.19</v>
       </c>
       <c r="F5" t="n">
-        <v>101712.4727</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>-85429.08842978805</v>
+        <v>469527.3336279094</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="D6" t="n">
-        <v>27.01</v>
+        <v>25.8</v>
       </c>
       <c r="E6" t="n">
-        <v>26.5</v>
+        <v>25.8</v>
       </c>
       <c r="F6" t="n">
-        <v>67813.75659999999</v>
+        <v>749.1739</v>
       </c>
       <c r="G6" t="n">
-        <v>-153242.845029788</v>
+        <v>468778.1597279094</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>25.74</v>
       </c>
       <c r="C7" t="n">
-        <v>27.01</v>
+        <v>26.08</v>
       </c>
       <c r="D7" t="n">
-        <v>27.01</v>
+        <v>26.08</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>25.74</v>
       </c>
       <c r="F7" t="n">
-        <v>131.2184</v>
+        <v>11957.0055</v>
       </c>
       <c r="G7" t="n">
-        <v>-153111.626629788</v>
+        <v>480735.1652279093</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>25.9</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>25.9</v>
       </c>
       <c r="D8" t="n">
-        <v>27.01</v>
+        <v>25.9</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>25.9</v>
       </c>
       <c r="F8" t="n">
-        <v>2137.9257</v>
+        <v>9649.4658</v>
       </c>
       <c r="G8" t="n">
-        <v>-155249.552329788</v>
+        <v>471085.6994279093</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +734,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>26.1</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>25.81</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>26.37</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>25.81</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>86758.0352</v>
       </c>
       <c r="G9" t="n">
-        <v>-155249.552329788</v>
+        <v>384327.6642279094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +778,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.98</v>
+        <v>26.29</v>
       </c>
       <c r="C10" t="n">
-        <v>26.88</v>
+        <v>26.29</v>
       </c>
       <c r="D10" t="n">
-        <v>26.98</v>
+        <v>26.29</v>
       </c>
       <c r="E10" t="n">
-        <v>26.5</v>
+        <v>26.29</v>
       </c>
       <c r="F10" t="n">
-        <v>94311.4412</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>-249560.993529788</v>
+        <v>384347.6642279094</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +822,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.78</v>
+        <v>26.29</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>26.39</v>
       </c>
       <c r="E11" t="n">
-        <v>26.78</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>17812.8029</v>
+        <v>47025.3908</v>
       </c>
       <c r="G11" t="n">
-        <v>-231748.190629788</v>
+        <v>337322.2734279094</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +864,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.54</v>
+        <v>26.2</v>
       </c>
       <c r="C12" t="n">
-        <v>26.79</v>
+        <v>26.2</v>
       </c>
       <c r="D12" t="n">
-        <v>26.79</v>
+        <v>26.2</v>
       </c>
       <c r="E12" t="n">
-        <v>26.31</v>
+        <v>26.2</v>
       </c>
       <c r="F12" t="n">
-        <v>20848.971</v>
+        <v>909</v>
       </c>
       <c r="G12" t="n">
-        <v>-252597.161629788</v>
+        <v>338231.2734279094</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +888,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +906,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.78</v>
+        <v>26.47</v>
       </c>
       <c r="C13" t="n">
-        <v>26.68</v>
+        <v>26.47</v>
       </c>
       <c r="D13" t="n">
-        <v>26.78</v>
+        <v>26.47</v>
       </c>
       <c r="E13" t="n">
-        <v>26.68</v>
+        <v>26.47</v>
       </c>
       <c r="F13" t="n">
-        <v>51975.7788</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>-304572.940429788</v>
+        <v>338251.2734279094</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +930,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +948,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>26.36</v>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9</v>
+        <v>26.36</v>
       </c>
       <c r="F14" t="n">
-        <v>555</v>
+        <v>8686.8536</v>
       </c>
       <c r="G14" t="n">
-        <v>-304017.940429788</v>
+        <v>329564.4198279094</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +972,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +990,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.98</v>
+        <v>26.46</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>26.48</v>
       </c>
       <c r="D15" t="n">
-        <v>27.01</v>
+        <v>26.48</v>
       </c>
       <c r="E15" t="n">
-        <v>26.98</v>
+        <v>26.46</v>
       </c>
       <c r="F15" t="n">
-        <v>9712.526900000001</v>
+        <v>100674.9891</v>
       </c>
       <c r="G15" t="n">
-        <v>-304017.940429788</v>
+        <v>430239.4089279094</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1014,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1032,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.99</v>
+        <v>26.55</v>
       </c>
       <c r="C16" t="n">
-        <v>27.01</v>
+        <v>26.57</v>
       </c>
       <c r="D16" t="n">
-        <v>27.01</v>
+        <v>26.57</v>
       </c>
       <c r="E16" t="n">
-        <v>26.99</v>
+        <v>26.55</v>
       </c>
       <c r="F16" t="n">
-        <v>32979.568</v>
+        <v>16596.1477</v>
       </c>
       <c r="G16" t="n">
-        <v>-271038.372429788</v>
+        <v>446835.5566279094</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1056,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,36 +1074,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>26.57</v>
       </c>
       <c r="C17" t="n">
-        <v>27.01</v>
+        <v>26.6</v>
       </c>
       <c r="D17" t="n">
-        <v>27.01</v>
+        <v>26.82</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>26.57</v>
       </c>
       <c r="F17" t="n">
-        <v>3159.1216</v>
+        <v>18617</v>
       </c>
       <c r="G17" t="n">
-        <v>-271038.372429788</v>
+        <v>465452.5566279094</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1020,22 +1116,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="F18" t="n">
-        <v>78</v>
+        <v>312599.8103</v>
       </c>
       <c r="G18" t="n">
-        <v>-271116.372429788</v>
+        <v>778052.3669279094</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1044,7 +1140,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1060,33 +1158,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>28.78</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>28.78</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="F19" t="n">
-        <v>94.05629999999999</v>
+        <v>246069.5369966849</v>
       </c>
       <c r="G19" t="n">
-        <v>-271116.372429788</v>
+        <v>1024121.903924594</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>27</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1102,33 +1200,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="C20" t="n">
-        <v>27.01</v>
+        <v>29.88</v>
       </c>
       <c r="D20" t="n">
-        <v>27.01</v>
+        <v>29.88</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>154006.6528</v>
       </c>
       <c r="G20" t="n">
-        <v>-271095.372429788</v>
+        <v>1178128.556724594</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>27</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1144,33 +1242,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.51</v>
+        <v>28.4</v>
       </c>
       <c r="C21" t="n">
-        <v>26.8</v>
+        <v>29.89</v>
       </c>
       <c r="D21" t="n">
-        <v>26.9</v>
+        <v>29.89</v>
       </c>
       <c r="E21" t="n">
-        <v>26.31</v>
+        <v>28.4</v>
       </c>
       <c r="F21" t="n">
-        <v>45712.31</v>
+        <v>75586.17630521914</v>
       </c>
       <c r="G21" t="n">
-        <v>-316807.682429788</v>
+        <v>1253714.733029814</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,33 +1284,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.44</v>
+        <v>28.6</v>
       </c>
       <c r="C22" t="n">
-        <v>26.79</v>
+        <v>29.36</v>
       </c>
       <c r="D22" t="n">
-        <v>26.79</v>
+        <v>29.47</v>
       </c>
       <c r="E22" t="n">
-        <v>26.44</v>
+        <v>28.6</v>
       </c>
       <c r="F22" t="n">
-        <v>3188.9896</v>
+        <v>41613.2574</v>
       </c>
       <c r="G22" t="n">
-        <v>-319996.672029788</v>
+        <v>1212101.475629814</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1228,22 +1326,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.89</v>
+        <v>29.36</v>
       </c>
       <c r="C23" t="n">
-        <v>26.34</v>
+        <v>29.26</v>
       </c>
       <c r="D23" t="n">
-        <v>26.89</v>
+        <v>29.36</v>
       </c>
       <c r="E23" t="n">
-        <v>26.34</v>
+        <v>28.1</v>
       </c>
       <c r="F23" t="n">
-        <v>79261.00810000001</v>
+        <v>60056.1576</v>
       </c>
       <c r="G23" t="n">
-        <v>-399257.680129788</v>
+        <v>1152045.318029813</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1252,7 +1350,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1268,22 +1368,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.67</v>
+        <v>29.36</v>
       </c>
       <c r="C24" t="n">
-        <v>26.32</v>
+        <v>29.46</v>
       </c>
       <c r="D24" t="n">
-        <v>26.77</v>
+        <v>29.46</v>
       </c>
       <c r="E24" t="n">
-        <v>26.32</v>
+        <v>29.36</v>
       </c>
       <c r="F24" t="n">
-        <v>11433.0589</v>
+        <v>124937.7856</v>
       </c>
       <c r="G24" t="n">
-        <v>-410690.739029788</v>
+        <v>1276983.103629814</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1292,7 +1392,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1308,76 +1410,76 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.88</v>
+        <v>29.37</v>
       </c>
       <c r="C25" t="n">
-        <v>26.88</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>26.88</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>26.88</v>
+        <v>29.37</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>143605.8291310667</v>
       </c>
       <c r="G25" t="n">
-        <v>-410668.739029788</v>
+        <v>1420588.93276088</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>26.08</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>1.145306748466258</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.003076923076923</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.5</v>
+        <v>29.03</v>
       </c>
       <c r="C26" t="n">
-        <v>26.78</v>
+        <v>28.32</v>
       </c>
       <c r="D26" t="n">
-        <v>26.78</v>
+        <v>29.9</v>
       </c>
       <c r="E26" t="n">
-        <v>26.02</v>
+        <v>27.3</v>
       </c>
       <c r="F26" t="n">
-        <v>72583.08900000001</v>
+        <v>146366.0719</v>
       </c>
       <c r="G26" t="n">
-        <v>-483251.828029788</v>
+        <v>1274222.86086088</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1388,36 +1490,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.49</v>
+        <v>28.32</v>
       </c>
       <c r="C27" t="n">
-        <v>26.67</v>
+        <v>28.11</v>
       </c>
       <c r="D27" t="n">
-        <v>26.78</v>
+        <v>29.9</v>
       </c>
       <c r="E27" t="n">
-        <v>26.45</v>
+        <v>27.58</v>
       </c>
       <c r="F27" t="n">
-        <v>17113.0528</v>
+        <v>205371.0516</v>
       </c>
       <c r="G27" t="n">
-        <v>-500364.880829788</v>
+        <v>1068851.80926088</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1428,36 +1526,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.35</v>
+        <v>28.11</v>
       </c>
       <c r="C28" t="n">
-        <v>26.45</v>
+        <v>29.43</v>
       </c>
       <c r="D28" t="n">
-        <v>26.59</v>
+        <v>29.43</v>
       </c>
       <c r="E28" t="n">
-        <v>26.35</v>
+        <v>28.11</v>
       </c>
       <c r="F28" t="n">
-        <v>11155.5</v>
+        <v>33128.25</v>
       </c>
       <c r="G28" t="n">
-        <v>-511520.380829788</v>
+        <v>1101980.05926088</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1468,38 +1562,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.45</v>
+        <v>29.43</v>
       </c>
       <c r="C29" t="n">
-        <v>26.6</v>
+        <v>29.79</v>
       </c>
       <c r="D29" t="n">
-        <v>26.6</v>
+        <v>29.79</v>
       </c>
       <c r="E29" t="n">
-        <v>26.45</v>
+        <v>29.43</v>
       </c>
       <c r="F29" t="n">
-        <v>28608.5481</v>
+        <v>5322.178309331991</v>
       </c>
       <c r="G29" t="n">
-        <v>-482911.832729788</v>
+        <v>1107302.237570212</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>26.45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1510,36 +1598,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.45</v>
+        <v>29.58</v>
       </c>
       <c r="C30" t="n">
-        <v>26.03</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>26.45</v>
+        <v>29.58</v>
       </c>
       <c r="E30" t="n">
-        <v>26.03</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
-        <v>29680.547</v>
+        <v>828012.7963</v>
       </c>
       <c r="G30" t="n">
-        <v>-512592.379729788</v>
+        <v>279289.4412702119</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1550,36 +1634,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.3</v>
+        <v>27.99</v>
       </c>
       <c r="C31" t="n">
-        <v>26.45</v>
+        <v>27.99</v>
       </c>
       <c r="D31" t="n">
-        <v>26.45</v>
+        <v>28.5</v>
       </c>
       <c r="E31" t="n">
-        <v>26.25</v>
+        <v>27.98</v>
       </c>
       <c r="F31" t="n">
-        <v>39777.0806</v>
+        <v>301752.8151</v>
       </c>
       <c r="G31" t="n">
-        <v>-472815.299129788</v>
+        <v>-22463.37382978806</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1670,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.35</v>
+        <v>27.9</v>
       </c>
       <c r="C32" t="n">
-        <v>26.35</v>
+        <v>27.21</v>
       </c>
       <c r="D32" t="n">
-        <v>26.35</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
-        <v>26.35</v>
+        <v>27.21</v>
       </c>
       <c r="F32" t="n">
-        <v>47592.3409</v>
+        <v>155724.5127</v>
       </c>
       <c r="G32" t="n">
-        <v>-520407.640029788</v>
+        <v>-178187.8865297881</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1615,11 +1695,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1630,22 +1706,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26.44</v>
+        <v>27.4</v>
       </c>
       <c r="C33" t="n">
-        <v>26.26</v>
+        <v>27.3</v>
       </c>
       <c r="D33" t="n">
-        <v>26.44</v>
+        <v>27.6</v>
       </c>
       <c r="E33" t="n">
-        <v>26.2</v>
+        <v>26.89</v>
       </c>
       <c r="F33" t="n">
-        <v>10822</v>
+        <v>194471.2708</v>
       </c>
       <c r="G33" t="n">
-        <v>-531229.640029788</v>
+        <v>16283.38427021194</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1655,11 +1731,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1670,22 +1742,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.26</v>
+        <v>27.4</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26</v>
+        <v>27.01</v>
       </c>
       <c r="D34" t="n">
-        <v>26.26</v>
+        <v>27.4</v>
       </c>
       <c r="E34" t="n">
-        <v>26.26</v>
+        <v>26.5</v>
       </c>
       <c r="F34" t="n">
-        <v>12000</v>
+        <v>101712.4727</v>
       </c>
       <c r="G34" t="n">
-        <v>-531229.640029788</v>
+        <v>-85429.08842978805</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1695,11 +1767,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1710,22 +1778,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.21</v>
+        <v>26.9</v>
       </c>
       <c r="C35" t="n">
-        <v>26.44</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>26.45</v>
+        <v>27.01</v>
       </c>
       <c r="E35" t="n">
-        <v>26.21</v>
+        <v>26.5</v>
       </c>
       <c r="F35" t="n">
-        <v>30000</v>
+        <v>67813.75659999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-501229.640029788</v>
+        <v>-153242.845029788</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1735,11 +1803,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1750,22 +1814,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.13</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>25.9</v>
+        <v>27.01</v>
       </c>
       <c r="D36" t="n">
-        <v>26.3</v>
+        <v>27.01</v>
       </c>
       <c r="E36" t="n">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
-        <v>78521.8135</v>
+        <v>131.2184</v>
       </c>
       <c r="G36" t="n">
-        <v>-579751.4535297881</v>
+        <v>-153111.626629788</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1775,11 +1839,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1790,22 +1850,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>26.17</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
-        <v>26.17</v>
+        <v>27.01</v>
       </c>
       <c r="E37" t="n">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>58539.824</v>
+        <v>2137.9257</v>
       </c>
       <c r="G37" t="n">
-        <v>-521211.629529788</v>
+        <v>-155249.552329788</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1815,11 +1875,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1830,22 +1886,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26.27</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
-        <v>2670.2681</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>-518541.3614297881</v>
+        <v>-155249.552329788</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1855,11 +1911,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1870,22 +1922,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26.19</v>
+        <v>26.98</v>
       </c>
       <c r="C39" t="n">
-        <v>26.19</v>
+        <v>26.88</v>
       </c>
       <c r="D39" t="n">
-        <v>26.19</v>
+        <v>26.98</v>
       </c>
       <c r="E39" t="n">
-        <v>26.19</v>
+        <v>26.5</v>
       </c>
       <c r="F39" t="n">
-        <v>2067</v>
+        <v>94311.4412</v>
       </c>
       <c r="G39" t="n">
-        <v>-520608.3614297881</v>
+        <v>-249560.993529788</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1895,11 +1947,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1910,22 +1958,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="C40" t="n">
-        <v>26.19</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>26.19</v>
+        <v>27</v>
       </c>
       <c r="E40" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="F40" t="n">
-        <v>450</v>
+        <v>17812.8029</v>
       </c>
       <c r="G40" t="n">
-        <v>-520608.3614297881</v>
+        <v>-231748.190629788</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1935,11 +1983,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +1994,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26.09</v>
+        <v>26.54</v>
       </c>
       <c r="C41" t="n">
-        <v>26.09</v>
+        <v>26.79</v>
       </c>
       <c r="D41" t="n">
-        <v>26.09</v>
+        <v>26.79</v>
       </c>
       <c r="E41" t="n">
-        <v>26.09</v>
+        <v>26.31</v>
       </c>
       <c r="F41" t="n">
-        <v>1250</v>
+        <v>20848.971</v>
       </c>
       <c r="G41" t="n">
-        <v>-521858.3614297881</v>
+        <v>-252597.161629788</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1975,11 +2019,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1990,22 +2030,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="C42" t="n">
-        <v>26.19</v>
+        <v>26.68</v>
       </c>
       <c r="D42" t="n">
-        <v>26.19</v>
+        <v>26.78</v>
       </c>
       <c r="E42" t="n">
-        <v>26.19</v>
+        <v>26.68</v>
       </c>
       <c r="F42" t="n">
-        <v>3252.5522</v>
+        <v>51975.7788</v>
       </c>
       <c r="G42" t="n">
-        <v>-518605.8092297881</v>
+        <v>-304572.940429788</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2015,11 +2055,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2030,22 +2066,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.19</v>
+        <v>26.9</v>
       </c>
       <c r="C43" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="E43" t="n">
-        <v>26.19</v>
+        <v>26.9</v>
       </c>
       <c r="F43" t="n">
-        <v>12934.2072</v>
+        <v>555</v>
       </c>
       <c r="G43" t="n">
-        <v>-505671.6020297881</v>
+        <v>-304017.940429788</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2055,11 +2091,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2070,22 +2102,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.29</v>
+        <v>26.98</v>
       </c>
       <c r="C44" t="n">
-        <v>25.95</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
-        <v>26.29</v>
+        <v>27.01</v>
       </c>
       <c r="E44" t="n">
-        <v>25.95</v>
+        <v>26.98</v>
       </c>
       <c r="F44" t="n">
-        <v>11202.5355</v>
+        <v>9712.526900000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-516874.1375297881</v>
+        <v>-304017.940429788</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2095,11 +2127,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2110,22 +2138,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.93</v>
+        <v>26.99</v>
       </c>
       <c r="C45" t="n">
-        <v>26.18</v>
+        <v>27.01</v>
       </c>
       <c r="D45" t="n">
-        <v>26.18</v>
+        <v>27.01</v>
       </c>
       <c r="E45" t="n">
-        <v>25.82</v>
+        <v>26.99</v>
       </c>
       <c r="F45" t="n">
-        <v>138245.0398</v>
+        <v>32979.568</v>
       </c>
       <c r="G45" t="n">
-        <v>-378629.097729788</v>
+        <v>-271038.372429788</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2135,11 +2163,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +2174,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.18</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>26.24</v>
+        <v>27.01</v>
       </c>
       <c r="D46" t="n">
-        <v>26.28</v>
+        <v>27.01</v>
       </c>
       <c r="E46" t="n">
-        <v>25.84</v>
+        <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>18992.419</v>
+        <v>3159.1216</v>
       </c>
       <c r="G46" t="n">
-        <v>-359636.6787297881</v>
+        <v>-271038.372429788</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2175,11 +2199,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2190,22 +2210,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="E47" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="F47" t="n">
-        <v>11335.4005</v>
+        <v>78</v>
       </c>
       <c r="G47" t="n">
-        <v>-359636.6787297881</v>
+        <v>-271116.372429788</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2215,11 +2235,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2230,22 +2246,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="E48" t="n">
-        <v>26.24</v>
+        <v>27</v>
       </c>
       <c r="F48" t="n">
-        <v>13816.1082</v>
+        <v>94.05629999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-359636.6787297881</v>
+        <v>-271116.372429788</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2255,11 +2271,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2270,22 +2282,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.23</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>26.23</v>
+        <v>27.01</v>
       </c>
       <c r="D49" t="n">
-        <v>26.23</v>
+        <v>27.01</v>
       </c>
       <c r="E49" t="n">
-        <v>26.23</v>
+        <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>12288</v>
+        <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>-371924.6787297881</v>
+        <v>-271095.372429788</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2295,11 +2307,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2318,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.01</v>
+        <v>26.51</v>
       </c>
       <c r="C50" t="n">
-        <v>26.01</v>
+        <v>26.8</v>
       </c>
       <c r="D50" t="n">
-        <v>26.59</v>
+        <v>26.9</v>
       </c>
       <c r="E50" t="n">
-        <v>26.01</v>
+        <v>26.31</v>
       </c>
       <c r="F50" t="n">
-        <v>81825.6323</v>
+        <v>45712.31</v>
       </c>
       <c r="G50" t="n">
-        <v>-453750.311029788</v>
+        <v>-316807.682429788</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2335,11 +2343,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2350,22 +2354,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.01</v>
+        <v>26.44</v>
       </c>
       <c r="C51" t="n">
-        <v>26.29</v>
+        <v>26.79</v>
       </c>
       <c r="D51" t="n">
-        <v>26.29</v>
+        <v>26.79</v>
       </c>
       <c r="E51" t="n">
-        <v>26.01</v>
+        <v>26.44</v>
       </c>
       <c r="F51" t="n">
-        <v>6929</v>
+        <v>3188.9896</v>
       </c>
       <c r="G51" t="n">
-        <v>-446821.311029788</v>
+        <v>-319996.672029788</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2375,11 +2379,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2390,22 +2390,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.03</v>
+        <v>26.89</v>
       </c>
       <c r="C52" t="n">
-        <v>26.19</v>
+        <v>26.34</v>
       </c>
       <c r="D52" t="n">
-        <v>26.32</v>
+        <v>26.89</v>
       </c>
       <c r="E52" t="n">
-        <v>25.94</v>
+        <v>26.34</v>
       </c>
       <c r="F52" t="n">
-        <v>51206.4641</v>
+        <v>79261.00810000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-498027.775129788</v>
+        <v>-399257.680129788</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2415,11 +2415,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2430,22 +2426,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.05</v>
+        <v>26.67</v>
       </c>
       <c r="C53" t="n">
-        <v>26.05</v>
+        <v>26.32</v>
       </c>
       <c r="D53" t="n">
-        <v>26.05</v>
+        <v>26.77</v>
       </c>
       <c r="E53" t="n">
-        <v>26.05</v>
+        <v>26.32</v>
       </c>
       <c r="F53" t="n">
-        <v>4683.9775</v>
+        <v>11433.0589</v>
       </c>
       <c r="G53" t="n">
-        <v>-502711.752629788</v>
+        <v>-410690.739029788</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2455,11 +2451,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2470,22 +2462,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.19</v>
+        <v>26.88</v>
       </c>
       <c r="C54" t="n">
-        <v>26.1</v>
+        <v>26.88</v>
       </c>
       <c r="D54" t="n">
-        <v>26.19</v>
+        <v>26.88</v>
       </c>
       <c r="E54" t="n">
-        <v>26.1</v>
+        <v>26.88</v>
       </c>
       <c r="F54" t="n">
-        <v>7353.5602</v>
+        <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>-495358.192429788</v>
+        <v>-410668.739029788</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2495,11 +2487,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2498,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.06</v>
+        <v>26.5</v>
       </c>
       <c r="C55" t="n">
-        <v>26.05</v>
+        <v>26.78</v>
       </c>
       <c r="D55" t="n">
-        <v>26.06</v>
+        <v>26.78</v>
       </c>
       <c r="E55" t="n">
-        <v>26.05</v>
+        <v>26.02</v>
       </c>
       <c r="F55" t="n">
-        <v>1331.6842</v>
+        <v>72583.08900000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-496689.876629788</v>
+        <v>-483251.828029788</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2535,11 +2523,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2550,22 +2534,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.05</v>
+        <v>26.49</v>
       </c>
       <c r="C56" t="n">
-        <v>25.82</v>
+        <v>26.67</v>
       </c>
       <c r="D56" t="n">
-        <v>26.05</v>
+        <v>26.78</v>
       </c>
       <c r="E56" t="n">
-        <v>25.82</v>
+        <v>26.45</v>
       </c>
       <c r="F56" t="n">
-        <v>59200.6915</v>
+        <v>17113.0528</v>
       </c>
       <c r="G56" t="n">
-        <v>-555890.568129788</v>
+        <v>-500364.880829788</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2575,11 +2559,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2590,22 +2570,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.93</v>
+        <v>26.35</v>
       </c>
       <c r="C57" t="n">
-        <v>26.13</v>
+        <v>26.45</v>
       </c>
       <c r="D57" t="n">
-        <v>26.13</v>
+        <v>26.59</v>
       </c>
       <c r="E57" t="n">
-        <v>25.79</v>
+        <v>26.35</v>
       </c>
       <c r="F57" t="n">
-        <v>16085.5204</v>
+        <v>11155.5</v>
       </c>
       <c r="G57" t="n">
-        <v>-539805.047729788</v>
+        <v>-511520.380829788</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2615,11 +2595,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2630,22 +2606,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.04</v>
+        <v>26.45</v>
       </c>
       <c r="C58" t="n">
-        <v>26.04</v>
+        <v>26.6</v>
       </c>
       <c r="D58" t="n">
-        <v>26.04</v>
+        <v>26.6</v>
       </c>
       <c r="E58" t="n">
-        <v>26.04</v>
+        <v>26.45</v>
       </c>
       <c r="F58" t="n">
-        <v>7226.5485</v>
+        <v>28608.5481</v>
       </c>
       <c r="G58" t="n">
-        <v>-547031.596229788</v>
+        <v>-482911.832729788</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2655,11 +2631,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2642,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.72</v>
+        <v>26.45</v>
       </c>
       <c r="C59" t="n">
-        <v>25.92</v>
+        <v>26.03</v>
       </c>
       <c r="D59" t="n">
-        <v>25.93</v>
+        <v>26.45</v>
       </c>
       <c r="E59" t="n">
-        <v>25.72</v>
+        <v>26.03</v>
       </c>
       <c r="F59" t="n">
-        <v>22022.9756</v>
+        <v>29680.547</v>
       </c>
       <c r="G59" t="n">
-        <v>-569054.571829788</v>
+        <v>-512592.379729788</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2695,11 +2667,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2710,22 +2678,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.03</v>
+        <v>26.3</v>
       </c>
       <c r="C60" t="n">
-        <v>26.03</v>
+        <v>26.45</v>
       </c>
       <c r="D60" t="n">
-        <v>26.03</v>
+        <v>26.45</v>
       </c>
       <c r="E60" t="n">
-        <v>26.03</v>
+        <v>26.25</v>
       </c>
       <c r="F60" t="n">
-        <v>13726.3213</v>
+        <v>39777.0806</v>
       </c>
       <c r="G60" t="n">
-        <v>-555328.2505297881</v>
+        <v>-472815.299129788</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2735,11 +2703,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2750,22 +2714,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.8</v>
+        <v>26.35</v>
       </c>
       <c r="C61" t="n">
-        <v>26.03</v>
+        <v>26.35</v>
       </c>
       <c r="D61" t="n">
-        <v>26.03</v>
+        <v>26.35</v>
       </c>
       <c r="E61" t="n">
-        <v>25.62</v>
+        <v>26.35</v>
       </c>
       <c r="F61" t="n">
-        <v>43263.2443</v>
+        <v>47592.3409</v>
       </c>
       <c r="G61" t="n">
-        <v>-555328.2505297881</v>
+        <v>-520407.640029788</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2775,11 +2739,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2790,22 +2750,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.9</v>
+        <v>26.44</v>
       </c>
       <c r="C62" t="n">
-        <v>25.93</v>
+        <v>26.26</v>
       </c>
       <c r="D62" t="n">
-        <v>26.03</v>
+        <v>26.44</v>
       </c>
       <c r="E62" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F62" t="n">
-        <v>116910.0863</v>
+        <v>10822</v>
       </c>
       <c r="G62" t="n">
-        <v>-672238.3368297881</v>
+        <v>-531229.640029788</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2815,11 +2775,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2786,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.07</v>
+        <v>26.26</v>
       </c>
       <c r="C63" t="n">
-        <v>26.09</v>
+        <v>26.26</v>
       </c>
       <c r="D63" t="n">
-        <v>26.09</v>
+        <v>26.26</v>
       </c>
       <c r="E63" t="n">
-        <v>26.07</v>
+        <v>26.26</v>
       </c>
       <c r="F63" t="n">
-        <v>41143.9609</v>
+        <v>12000</v>
       </c>
       <c r="G63" t="n">
-        <v>-631094.3759297881</v>
+        <v>-531229.640029788</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2855,11 +2811,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2870,22 +2822,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.09</v>
+        <v>26.21</v>
       </c>
       <c r="C64" t="n">
-        <v>26.1</v>
+        <v>26.44</v>
       </c>
       <c r="D64" t="n">
-        <v>26.1</v>
+        <v>26.45</v>
       </c>
       <c r="E64" t="n">
-        <v>26.09</v>
+        <v>26.21</v>
       </c>
       <c r="F64" t="n">
-        <v>7438.8919</v>
+        <v>30000</v>
       </c>
       <c r="G64" t="n">
-        <v>-623655.4840297881</v>
+        <v>-501229.640029788</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2895,11 +2847,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2910,22 +2858,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.14</v>
+        <v>26.13</v>
       </c>
       <c r="C65" t="n">
-        <v>26.15</v>
+        <v>25.9</v>
       </c>
       <c r="D65" t="n">
-        <v>26.15</v>
+        <v>26.3</v>
       </c>
       <c r="E65" t="n">
-        <v>26.14</v>
+        <v>25.9</v>
       </c>
       <c r="F65" t="n">
-        <v>3413.5852</v>
+        <v>78521.8135</v>
       </c>
       <c r="G65" t="n">
-        <v>-620241.8988297881</v>
+        <v>-579751.4535297881</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2935,11 +2883,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +2894,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.08</v>
+        <v>26.17</v>
       </c>
       <c r="D66" t="n">
-        <v>26.1</v>
+        <v>26.17</v>
       </c>
       <c r="E66" t="n">
-        <v>26.08</v>
+        <v>25.9</v>
       </c>
       <c r="F66" t="n">
-        <v>11195.3244</v>
+        <v>58539.824</v>
       </c>
       <c r="G66" t="n">
-        <v>-631437.2232297881</v>
+        <v>-521211.629529788</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2975,11 +2919,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2990,22 +2930,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.07</v>
+        <v>26.27</v>
       </c>
       <c r="C67" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D67" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E67" t="n">
-        <v>26.07</v>
+        <v>26</v>
       </c>
       <c r="F67" t="n">
-        <v>17426.6843</v>
+        <v>2670.2681</v>
       </c>
       <c r="G67" t="n">
-        <v>-614010.5389297882</v>
+        <v>-518541.3614297881</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3015,11 +2955,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +2966,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="F68" t="n">
-        <v>12166.7076</v>
+        <v>2067</v>
       </c>
       <c r="G68" t="n">
-        <v>-626177.2465297881</v>
+        <v>-520608.3614297881</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3055,11 +2991,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +3002,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="D69" t="n">
-        <v>26.21</v>
+        <v>26.19</v>
       </c>
       <c r="E69" t="n">
-        <v>25.72</v>
+        <v>26.19</v>
       </c>
       <c r="F69" t="n">
-        <v>243056.316</v>
+        <v>450</v>
       </c>
       <c r="G69" t="n">
-        <v>-626177.2465297881</v>
+        <v>-520608.3614297881</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3095,11 +3027,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3110,7 +3038,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>26.09</v>
       </c>
       <c r="C70" t="n">
         <v>26.09</v>
@@ -3119,13 +3047,13 @@
         <v>26.09</v>
       </c>
       <c r="E70" t="n">
-        <v>25.99</v>
+        <v>26.09</v>
       </c>
       <c r="F70" t="n">
-        <v>25346.6549</v>
+        <v>1250</v>
       </c>
       <c r="G70" t="n">
-        <v>-600830.5916297882</v>
+        <v>-521858.3614297881</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3135,11 +3063,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +3074,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.9</v>
+        <v>26.19</v>
       </c>
       <c r="C71" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="D71" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="E71" t="n">
-        <v>25.9</v>
+        <v>26.19</v>
       </c>
       <c r="F71" t="n">
-        <v>10846.4589</v>
+        <v>3252.5522</v>
       </c>
       <c r="G71" t="n">
-        <v>-611677.0505297881</v>
+        <v>-518605.8092297881</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3175,11 +3099,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3190,22 +3110,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="C72" t="n">
-        <v>26.16</v>
+        <v>26.3</v>
       </c>
       <c r="D72" t="n">
-        <v>26.16</v>
+        <v>26.3</v>
       </c>
       <c r="E72" t="n">
-        <v>26</v>
+        <v>26.19</v>
       </c>
       <c r="F72" t="n">
-        <v>10038.9375</v>
+        <v>12934.2072</v>
       </c>
       <c r="G72" t="n">
-        <v>-601638.1130297881</v>
+        <v>-505671.6020297881</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3215,11 +3135,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3230,22 +3146,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.81</v>
+        <v>26.29</v>
       </c>
       <c r="C73" t="n">
-        <v>26</v>
+        <v>25.95</v>
       </c>
       <c r="D73" t="n">
-        <v>26</v>
+        <v>26.29</v>
       </c>
       <c r="E73" t="n">
-        <v>25.81</v>
+        <v>25.95</v>
       </c>
       <c r="F73" t="n">
-        <v>36934.1654</v>
+        <v>11202.5355</v>
       </c>
       <c r="G73" t="n">
-        <v>-638572.2784297881</v>
+        <v>-516874.1375297881</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3255,11 +3171,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3270,22 +3182,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.99</v>
+        <v>25.93</v>
       </c>
       <c r="C74" t="n">
-        <v>25.7</v>
+        <v>26.18</v>
       </c>
       <c r="D74" t="n">
-        <v>25.99</v>
+        <v>26.18</v>
       </c>
       <c r="E74" t="n">
-        <v>25.7</v>
+        <v>25.82</v>
       </c>
       <c r="F74" t="n">
-        <v>15290.2869</v>
+        <v>138245.0398</v>
       </c>
       <c r="G74" t="n">
-        <v>-653862.565329788</v>
+        <v>-378629.097729788</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3295,11 +3207,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3310,22 +3218,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.89</v>
+        <v>26.18</v>
       </c>
       <c r="C75" t="n">
-        <v>25.9</v>
+        <v>26.24</v>
       </c>
       <c r="D75" t="n">
-        <v>25.9</v>
+        <v>26.28</v>
       </c>
       <c r="E75" t="n">
-        <v>25.89</v>
+        <v>25.84</v>
       </c>
       <c r="F75" t="n">
-        <v>4259.3304</v>
+        <v>18992.419</v>
       </c>
       <c r="G75" t="n">
-        <v>-649603.234929788</v>
+        <v>-359636.6787297881</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3335,11 +3243,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3350,22 +3254,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.7</v>
+        <v>26.24</v>
       </c>
       <c r="C76" t="n">
-        <v>25.9</v>
+        <v>26.24</v>
       </c>
       <c r="D76" t="n">
-        <v>25.9</v>
+        <v>26.24</v>
       </c>
       <c r="E76" t="n">
-        <v>25.7</v>
+        <v>26.24</v>
       </c>
       <c r="F76" t="n">
-        <v>4810.3751</v>
+        <v>11335.4005</v>
       </c>
       <c r="G76" t="n">
-        <v>-649603.234929788</v>
+        <v>-359636.6787297881</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3375,11 +3279,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3290,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="C77" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="D77" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="E77" t="n">
-        <v>25.89</v>
+        <v>26.24</v>
       </c>
       <c r="F77" t="n">
-        <v>7828.3484</v>
+        <v>13816.1082</v>
       </c>
       <c r="G77" t="n">
-        <v>-657431.5833297881</v>
+        <v>-359636.6787297881</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3415,11 +3315,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3326,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.8</v>
+        <v>26.23</v>
       </c>
       <c r="C78" t="n">
-        <v>25.87</v>
+        <v>26.23</v>
       </c>
       <c r="D78" t="n">
-        <v>25.87</v>
+        <v>26.23</v>
       </c>
       <c r="E78" t="n">
-        <v>25.8</v>
+        <v>26.23</v>
       </c>
       <c r="F78" t="n">
-        <v>64310.8052</v>
+        <v>12288</v>
       </c>
       <c r="G78" t="n">
-        <v>-721742.388529788</v>
+        <v>-371924.6787297881</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3455,11 +3351,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3470,22 +3362,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.7</v>
+        <v>26.01</v>
       </c>
       <c r="C79" t="n">
-        <v>25.84</v>
+        <v>26.01</v>
       </c>
       <c r="D79" t="n">
-        <v>25.84</v>
+        <v>26.59</v>
       </c>
       <c r="E79" t="n">
-        <v>25.7</v>
+        <v>26.01</v>
       </c>
       <c r="F79" t="n">
-        <v>3950.7643</v>
+        <v>81825.6323</v>
       </c>
       <c r="G79" t="n">
-        <v>-725693.152829788</v>
+        <v>-453750.311029788</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3495,11 +3387,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3510,22 +3398,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.89</v>
+        <v>26.01</v>
       </c>
       <c r="C80" t="n">
-        <v>25.61</v>
+        <v>26.29</v>
       </c>
       <c r="D80" t="n">
-        <v>25.89</v>
+        <v>26.29</v>
       </c>
       <c r="E80" t="n">
-        <v>25.61</v>
+        <v>26.01</v>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>6929</v>
       </c>
       <c r="G80" t="n">
-        <v>-725743.152829788</v>
+        <v>-446821.311029788</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3535,11 +3423,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3550,22 +3434,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="C81" t="n">
-        <v>25.84</v>
+        <v>26.19</v>
       </c>
       <c r="D81" t="n">
-        <v>25.84</v>
+        <v>26.32</v>
       </c>
       <c r="E81" t="n">
-        <v>25.84</v>
+        <v>25.94</v>
       </c>
       <c r="F81" t="n">
-        <v>4800</v>
+        <v>51206.4641</v>
       </c>
       <c r="G81" t="n">
-        <v>-720943.152829788</v>
+        <v>-498027.775129788</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3575,11 +3459,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3590,22 +3470,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.6</v>
+        <v>26.05</v>
       </c>
       <c r="C82" t="n">
-        <v>25.8</v>
+        <v>26.05</v>
       </c>
       <c r="D82" t="n">
-        <v>25.83</v>
+        <v>26.05</v>
       </c>
       <c r="E82" t="n">
-        <v>25.5</v>
+        <v>26.05</v>
       </c>
       <c r="F82" t="n">
-        <v>17183.0116</v>
+        <v>4683.9775</v>
       </c>
       <c r="G82" t="n">
-        <v>-738126.164429788</v>
+        <v>-502711.752629788</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3615,11 +3495,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3506,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.5</v>
+        <v>26.19</v>
       </c>
       <c r="C83" t="n">
-        <v>25.84</v>
+        <v>26.1</v>
       </c>
       <c r="D83" t="n">
-        <v>25.84</v>
+        <v>26.19</v>
       </c>
       <c r="E83" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="F83" t="n">
-        <v>21203.724</v>
+        <v>7353.5602</v>
       </c>
       <c r="G83" t="n">
-        <v>-716922.440429788</v>
+        <v>-495358.192429788</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3655,11 +3531,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3670,22 +3542,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.5</v>
+        <v>26.06</v>
       </c>
       <c r="C84" t="n">
-        <v>25.31</v>
+        <v>26.05</v>
       </c>
       <c r="D84" t="n">
-        <v>25.5</v>
+        <v>26.06</v>
       </c>
       <c r="E84" t="n">
-        <v>25.31</v>
+        <v>26.05</v>
       </c>
       <c r="F84" t="n">
-        <v>74108.60060000001</v>
+        <v>1331.6842</v>
       </c>
       <c r="G84" t="n">
-        <v>-791031.041029788</v>
+        <v>-496689.876629788</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3695,11 +3567,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3710,22 +3578,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.7</v>
+        <v>26.05</v>
       </c>
       <c r="C85" t="n">
-        <v>25.43</v>
+        <v>25.82</v>
       </c>
       <c r="D85" t="n">
-        <v>25.8</v>
+        <v>26.05</v>
       </c>
       <c r="E85" t="n">
-        <v>25.43</v>
+        <v>25.82</v>
       </c>
       <c r="F85" t="n">
-        <v>22796.0207</v>
+        <v>59200.6915</v>
       </c>
       <c r="G85" t="n">
-        <v>-768235.020329788</v>
+        <v>-555890.568129788</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3735,11 +3603,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +3614,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.43</v>
+        <v>25.93</v>
       </c>
       <c r="C86" t="n">
-        <v>25.89</v>
+        <v>26.13</v>
       </c>
       <c r="D86" t="n">
-        <v>25.89</v>
+        <v>26.13</v>
       </c>
       <c r="E86" t="n">
-        <v>25.43</v>
+        <v>25.79</v>
       </c>
       <c r="F86" t="n">
-        <v>14469</v>
+        <v>16085.5204</v>
       </c>
       <c r="G86" t="n">
-        <v>-753766.020329788</v>
+        <v>-539805.047729788</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3775,11 +3639,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3790,22 +3650,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.7</v>
+        <v>26.04</v>
       </c>
       <c r="C87" t="n">
-        <v>25.7</v>
+        <v>26.04</v>
       </c>
       <c r="D87" t="n">
-        <v>25.79</v>
+        <v>26.04</v>
       </c>
       <c r="E87" t="n">
-        <v>25.69</v>
+        <v>26.04</v>
       </c>
       <c r="F87" t="n">
-        <v>7200</v>
+        <v>7226.5485</v>
       </c>
       <c r="G87" t="n">
-        <v>-760966.020329788</v>
+        <v>-547031.596229788</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3815,11 +3675,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3830,22 +3686,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.8</v>
+        <v>25.72</v>
       </c>
       <c r="C88" t="n">
-        <v>25.8</v>
+        <v>25.92</v>
       </c>
       <c r="D88" t="n">
-        <v>25.8</v>
+        <v>25.93</v>
       </c>
       <c r="E88" t="n">
-        <v>25.8</v>
+        <v>25.72</v>
       </c>
       <c r="F88" t="n">
-        <v>212.5074</v>
+        <v>22022.9756</v>
       </c>
       <c r="G88" t="n">
-        <v>-760753.512929788</v>
+        <v>-569054.571829788</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3855,11 +3711,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3870,36 +3722,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.52</v>
+        <v>26.03</v>
       </c>
       <c r="C89" t="n">
-        <v>25.87</v>
+        <v>26.03</v>
       </c>
       <c r="D89" t="n">
-        <v>25.97</v>
+        <v>26.03</v>
       </c>
       <c r="E89" t="n">
-        <v>25.52</v>
+        <v>26.03</v>
       </c>
       <c r="F89" t="n">
-        <v>10735.2409</v>
+        <v>13726.3213</v>
       </c>
       <c r="G89" t="n">
-        <v>-750018.272029788</v>
+        <v>-555328.2505297881</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="K89" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3910,22 +3762,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.77</v>
+        <v>25.8</v>
       </c>
       <c r="C90" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="D90" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="E90" t="n">
-        <v>25.77</v>
+        <v>25.62</v>
       </c>
       <c r="F90" t="n">
-        <v>20302.0196</v>
+        <v>43263.2443</v>
       </c>
       <c r="G90" t="n">
-        <v>-770320.291629788</v>
+        <v>-555328.2505297881</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3934,10 +3786,12 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3950,22 +3804,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.84</v>
+        <v>25.9</v>
       </c>
       <c r="C91" t="n">
-        <v>25.84</v>
+        <v>25.93</v>
       </c>
       <c r="D91" t="n">
-        <v>25.84</v>
+        <v>26.03</v>
       </c>
       <c r="E91" t="n">
-        <v>25.84</v>
+        <v>25.9</v>
       </c>
       <c r="F91" t="n">
-        <v>20460.154</v>
+        <v>116910.0863</v>
       </c>
       <c r="G91" t="n">
-        <v>-770320.291629788</v>
+        <v>-672238.3368297881</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3974,7 +3828,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,22 +3846,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.9</v>
+        <v>26.07</v>
       </c>
       <c r="C92" t="n">
-        <v>25.8</v>
+        <v>26.09</v>
       </c>
       <c r="D92" t="n">
-        <v>25.9</v>
+        <v>26.09</v>
       </c>
       <c r="E92" t="n">
-        <v>25.8</v>
+        <v>26.07</v>
       </c>
       <c r="F92" t="n">
-        <v>20259.302</v>
+        <v>41143.9609</v>
       </c>
       <c r="G92" t="n">
-        <v>-790579.593629788</v>
+        <v>-631094.3759297881</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4014,7 +3870,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,22 +3888,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.61</v>
+        <v>26.09</v>
       </c>
       <c r="C93" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="D93" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="E93" t="n">
-        <v>25.6</v>
+        <v>26.09</v>
       </c>
       <c r="F93" t="n">
-        <v>18939.7804</v>
+        <v>7438.8919</v>
       </c>
       <c r="G93" t="n">
-        <v>-790579.593629788</v>
+        <v>-623655.4840297881</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4054,7 +3912,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,22 +3930,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.8</v>
+        <v>26.14</v>
       </c>
       <c r="C94" t="n">
-        <v>26</v>
+        <v>26.15</v>
       </c>
       <c r="D94" t="n">
-        <v>26</v>
+        <v>26.15</v>
       </c>
       <c r="E94" t="n">
-        <v>25.8</v>
+        <v>26.14</v>
       </c>
       <c r="F94" t="n">
-        <v>40756.1667</v>
+        <v>3413.5852</v>
       </c>
       <c r="G94" t="n">
-        <v>-749823.426929788</v>
+        <v>-620241.8988297881</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4094,7 +3954,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,22 +3972,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>26.08</v>
       </c>
       <c r="D95" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E95" t="n">
-        <v>26</v>
+        <v>26.08</v>
       </c>
       <c r="F95" t="n">
-        <v>1995.9426</v>
+        <v>11195.3244</v>
       </c>
       <c r="G95" t="n">
-        <v>-749823.426929788</v>
+        <v>-631437.2232297881</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4134,7 +3996,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,22 +4014,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.89</v>
+        <v>26.07</v>
       </c>
       <c r="C96" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D96" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E96" t="n">
-        <v>25.89</v>
+        <v>26.07</v>
       </c>
       <c r="F96" t="n">
-        <v>5215.0036</v>
+        <v>17426.6843</v>
       </c>
       <c r="G96" t="n">
-        <v>-755038.430529788</v>
+        <v>-614010.5389297882</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4174,7 +4038,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,22 +4056,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.28</v>
+        <v>26</v>
       </c>
       <c r="C97" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
-        <v>26.29</v>
+        <v>26</v>
       </c>
       <c r="E97" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="F97" t="n">
-        <v>131200</v>
+        <v>12166.7076</v>
       </c>
       <c r="G97" t="n">
-        <v>-886238.430529788</v>
+        <v>-626177.2465297881</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4214,7 +4080,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,22 +4098,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>25.83</v>
+        <v>26.21</v>
       </c>
       <c r="E98" t="n">
-        <v>25.83</v>
+        <v>25.72</v>
       </c>
       <c r="F98" t="n">
-        <v>5749.128</v>
+        <v>243056.316</v>
       </c>
       <c r="G98" t="n">
-        <v>-886238.430529788</v>
+        <v>-626177.2465297881</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4254,7 +4122,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,22 +4140,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="D99" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="E99" t="n">
         <v>25.99</v>
       </c>
-      <c r="D99" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="E99" t="n">
-        <v>25.83</v>
-      </c>
       <c r="F99" t="n">
-        <v>7513.7433</v>
+        <v>25346.6549</v>
       </c>
       <c r="G99" t="n">
-        <v>-878724.687229788</v>
+        <v>-600830.5916297882</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4294,7 +4164,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,7 +4182,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25.99</v>
+        <v>25.9</v>
       </c>
       <c r="C100" t="n">
         <v>26</v>
@@ -4319,13 +4191,13 @@
         <v>26</v>
       </c>
       <c r="E100" t="n">
-        <v>25.99</v>
+        <v>25.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1728.5185</v>
+        <v>10846.4589</v>
       </c>
       <c r="G100" t="n">
-        <v>-876996.168729788</v>
+        <v>-611677.0505297881</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4334,7 +4206,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,22 +4224,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="C101" t="n">
-        <v>25.83</v>
+        <v>26.16</v>
       </c>
       <c r="D101" t="n">
-        <v>25.83</v>
+        <v>26.16</v>
       </c>
       <c r="E101" t="n">
-        <v>25.83</v>
+        <v>26</v>
       </c>
       <c r="F101" t="n">
-        <v>21060.2299</v>
+        <v>10038.9375</v>
       </c>
       <c r="G101" t="n">
-        <v>-898056.3986297881</v>
+        <v>-601638.1130297881</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4374,7 +4248,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,22 +4266,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25.95</v>
+        <v>25.81</v>
       </c>
       <c r="C102" t="n">
-        <v>25.95</v>
+        <v>26</v>
       </c>
       <c r="D102" t="n">
-        <v>25.95</v>
+        <v>26</v>
       </c>
       <c r="E102" t="n">
-        <v>25.95</v>
+        <v>25.81</v>
       </c>
       <c r="F102" t="n">
-        <v>2620.7862</v>
+        <v>36934.1654</v>
       </c>
       <c r="G102" t="n">
-        <v>-895435.6124297881</v>
+        <v>-638572.2784297881</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4414,7 +4290,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,22 +4308,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.9</v>
+        <v>25.99</v>
       </c>
       <c r="C103" t="n">
-        <v>27.87</v>
+        <v>25.7</v>
       </c>
       <c r="D103" t="n">
-        <v>27.87</v>
+        <v>25.99</v>
       </c>
       <c r="E103" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F103" t="n">
-        <v>9405.365</v>
+        <v>15290.2869</v>
       </c>
       <c r="G103" t="n">
-        <v>-886030.2474297881</v>
+        <v>-653862.565329788</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4454,7 +4332,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,22 +4350,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>26</v>
+        <v>25.89</v>
       </c>
       <c r="C104" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D104" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E104" t="n">
-        <v>26</v>
+        <v>25.89</v>
       </c>
       <c r="F104" t="n">
-        <v>6444.7403</v>
+        <v>4259.3304</v>
       </c>
       <c r="G104" t="n">
-        <v>-892474.9877297881</v>
+        <v>-649603.234929788</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4494,7 +4374,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4510,22 +4392,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.28</v>
+        <v>25.7</v>
       </c>
       <c r="C105" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D105" t="n">
-        <v>26.59</v>
+        <v>25.9</v>
       </c>
       <c r="E105" t="n">
-        <v>26.28</v>
+        <v>25.7</v>
       </c>
       <c r="F105" t="n">
-        <v>132134.7259</v>
+        <v>4810.3751</v>
       </c>
       <c r="G105" t="n">
-        <v>-760340.2618297881</v>
+        <v>-649603.234929788</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4534,7 +4416,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,22 +4434,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.41</v>
+        <v>25.89</v>
       </c>
       <c r="C106" t="n">
-        <v>26.59</v>
+        <v>25.89</v>
       </c>
       <c r="D106" t="n">
-        <v>26.59</v>
+        <v>25.89</v>
       </c>
       <c r="E106" t="n">
-        <v>26.31</v>
+        <v>25.89</v>
       </c>
       <c r="F106" t="n">
-        <v>8481.588</v>
+        <v>7828.3484</v>
       </c>
       <c r="G106" t="n">
-        <v>-751858.6738297881</v>
+        <v>-657431.5833297881</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4574,7 +4458,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4590,31 +4476,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="C107" t="n">
-        <v>26.1</v>
+        <v>25.87</v>
       </c>
       <c r="D107" t="n">
-        <v>26.7</v>
+        <v>25.87</v>
       </c>
       <c r="E107" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F107" t="n">
-        <v>81965.56299999999</v>
+        <v>64310.8052</v>
       </c>
       <c r="G107" t="n">
-        <v>-833824.2368297881</v>
+        <v>-721742.388529788</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K107" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,22 +4520,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.96</v>
+        <v>25.7</v>
       </c>
       <c r="C108" t="n">
-        <v>27.96</v>
+        <v>25.84</v>
       </c>
       <c r="D108" t="n">
-        <v>27.96</v>
+        <v>25.84</v>
       </c>
       <c r="E108" t="n">
-        <v>27.96</v>
+        <v>25.7</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>3950.7643</v>
       </c>
       <c r="G108" t="n">
-        <v>-833804.2368297881</v>
+        <v>-725693.152829788</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4654,7 +4544,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,31 +4562,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.79</v>
+        <v>25.89</v>
       </c>
       <c r="C109" t="n">
-        <v>26.59</v>
+        <v>25.61</v>
       </c>
       <c r="D109" t="n">
-        <v>27.05</v>
+        <v>25.89</v>
       </c>
       <c r="E109" t="n">
-        <v>26.22</v>
+        <v>25.61</v>
       </c>
       <c r="F109" t="n">
-        <v>4225</v>
+        <v>50</v>
       </c>
       <c r="G109" t="n">
-        <v>-838029.2368297881</v>
+        <v>-725743.152829788</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="K109" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,31 +4606,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.12</v>
+        <v>25.84</v>
       </c>
       <c r="C110" t="n">
-        <v>26.49</v>
+        <v>25.84</v>
       </c>
       <c r="D110" t="n">
-        <v>26.49</v>
+        <v>25.84</v>
       </c>
       <c r="E110" t="n">
-        <v>26.12</v>
+        <v>25.84</v>
       </c>
       <c r="F110" t="n">
-        <v>45</v>
+        <v>4800</v>
       </c>
       <c r="G110" t="n">
-        <v>-838074.2368297881</v>
+        <v>-720943.152829788</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="K110" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,31 +4650,35 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="C111" t="n">
-        <v>26.11</v>
+        <v>25.8</v>
       </c>
       <c r="D111" t="n">
-        <v>26.3</v>
+        <v>25.83</v>
       </c>
       <c r="E111" t="n">
-        <v>26.11</v>
+        <v>25.5</v>
       </c>
       <c r="F111" t="n">
-        <v>33730.6654</v>
+        <v>17183.0116</v>
       </c>
       <c r="G111" t="n">
-        <v>-871804.902229788</v>
+        <v>-738126.164429788</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="K111" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,31 +4694,35 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="C112" t="n">
-        <v>26.2</v>
+        <v>25.84</v>
       </c>
       <c r="D112" t="n">
-        <v>26.3</v>
+        <v>25.84</v>
       </c>
       <c r="E112" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="F112" t="n">
-        <v>15274.7208</v>
+        <v>21203.724</v>
       </c>
       <c r="G112" t="n">
-        <v>-856530.181429788</v>
+        <v>-716922.440429788</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,31 +4738,35 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="C113" t="n">
-        <v>26.11</v>
+        <v>25.31</v>
       </c>
       <c r="D113" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="E113" t="n">
-        <v>26.11</v>
+        <v>25.31</v>
       </c>
       <c r="F113" t="n">
-        <v>16369.3826</v>
+        <v>74108.60060000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-872899.564029788</v>
+        <v>-791031.041029788</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="K113" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,31 +4782,35 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="C114" t="n">
-        <v>26.3</v>
+        <v>25.43</v>
       </c>
       <c r="D114" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="E114" t="n">
-        <v>26.3</v>
+        <v>25.43</v>
       </c>
       <c r="F114" t="n">
-        <v>5073.8796</v>
+        <v>22796.0207</v>
       </c>
       <c r="G114" t="n">
-        <v>-867825.684429788</v>
+        <v>-768235.020329788</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="K114" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4910,31 +4826,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.44</v>
+        <v>25.43</v>
       </c>
       <c r="C115" t="n">
-        <v>26.45</v>
+        <v>25.89</v>
       </c>
       <c r="D115" t="n">
-        <v>26.45</v>
+        <v>25.89</v>
       </c>
       <c r="E115" t="n">
-        <v>26.44</v>
+        <v>25.43</v>
       </c>
       <c r="F115" t="n">
-        <v>17269.8979</v>
+        <v>14469</v>
       </c>
       <c r="G115" t="n">
-        <v>-850555.786529788</v>
+        <v>-753766.020329788</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="K115" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,31 +4870,35 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.52</v>
+        <v>25.7</v>
       </c>
       <c r="C116" t="n">
-        <v>26.52</v>
+        <v>25.7</v>
       </c>
       <c r="D116" t="n">
-        <v>26.52</v>
+        <v>25.79</v>
       </c>
       <c r="E116" t="n">
-        <v>26.52</v>
+        <v>25.69</v>
       </c>
       <c r="F116" t="n">
-        <v>15530.4947</v>
+        <v>7200</v>
       </c>
       <c r="G116" t="n">
-        <v>-835025.291829788</v>
+        <v>-760966.020329788</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="K116" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4990,31 +4914,35 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.56</v>
+        <v>25.8</v>
       </c>
       <c r="C117" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="D117" t="n">
-        <v>26.88</v>
+        <v>25.8</v>
       </c>
       <c r="E117" t="n">
-        <v>26.56</v>
+        <v>25.8</v>
       </c>
       <c r="F117" t="n">
-        <v>66330.5724</v>
+        <v>212.5074</v>
       </c>
       <c r="G117" t="n">
-        <v>-768694.7194297879</v>
+        <v>-760753.512929788</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K117" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,31 +4958,35 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.61</v>
+        <v>25.52</v>
       </c>
       <c r="C118" t="n">
-        <v>26.7</v>
+        <v>25.87</v>
       </c>
       <c r="D118" t="n">
-        <v>26.7</v>
+        <v>25.97</v>
       </c>
       <c r="E118" t="n">
-        <v>26.61</v>
+        <v>25.52</v>
       </c>
       <c r="F118" t="n">
-        <v>11221.9467</v>
+        <v>10735.2409</v>
       </c>
       <c r="G118" t="n">
-        <v>-768694.7194297879</v>
+        <v>-750018.272029788</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K118" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5070,31 +5002,35 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.61</v>
+        <v>25.77</v>
       </c>
       <c r="C119" t="n">
-        <v>26.61</v>
+        <v>25.84</v>
       </c>
       <c r="D119" t="n">
-        <v>26.61</v>
+        <v>25.84</v>
       </c>
       <c r="E119" t="n">
-        <v>26.61</v>
+        <v>25.77</v>
       </c>
       <c r="F119" t="n">
-        <v>7440.811</v>
+        <v>20302.0196</v>
       </c>
       <c r="G119" t="n">
-        <v>-776135.5304297879</v>
+        <v>-770320.291629788</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="K119" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,31 +5046,35 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.9</v>
+        <v>25.84</v>
       </c>
       <c r="C120" t="n">
-        <v>26.9</v>
+        <v>25.84</v>
       </c>
       <c r="D120" t="n">
-        <v>27</v>
+        <v>25.84</v>
       </c>
       <c r="E120" t="n">
-        <v>26.9</v>
+        <v>25.84</v>
       </c>
       <c r="F120" t="n">
-        <v>41760.2752</v>
+        <v>20460.154</v>
       </c>
       <c r="G120" t="n">
-        <v>-734375.2552297879</v>
+        <v>-770320.291629788</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="K120" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,31 +5090,35 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.9</v>
+        <v>25.9</v>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="D121" t="n">
-        <v>27.1</v>
+        <v>25.9</v>
       </c>
       <c r="E121" t="n">
-        <v>26.8</v>
+        <v>25.8</v>
       </c>
       <c r="F121" t="n">
-        <v>13982.3562</v>
+        <v>20259.302</v>
       </c>
       <c r="G121" t="n">
-        <v>-720392.8990297879</v>
+        <v>-790579.593629788</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="K121" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,31 +5134,35 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.63</v>
+        <v>25.61</v>
       </c>
       <c r="C122" t="n">
-        <v>26.61</v>
+        <v>25.8</v>
       </c>
       <c r="D122" t="n">
-        <v>26.63</v>
+        <v>25.8</v>
       </c>
       <c r="E122" t="n">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="F122" t="n">
-        <v>11873.8424</v>
+        <v>18939.7804</v>
       </c>
       <c r="G122" t="n">
-        <v>-732266.7414297878</v>
+        <v>-790579.593629788</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K122" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,31 +5178,35 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.61</v>
+        <v>25.8</v>
       </c>
       <c r="C123" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="D123" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="E123" t="n">
-        <v>26.61</v>
+        <v>25.8</v>
       </c>
       <c r="F123" t="n">
-        <v>10105.9202</v>
+        <v>40756.1667</v>
       </c>
       <c r="G123" t="n">
-        <v>-732266.7414297878</v>
+        <v>-749823.426929788</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,31 +5222,35 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="C124" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="D124" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="E124" t="n">
-        <v>26.61</v>
+        <v>26</v>
       </c>
       <c r="F124" t="n">
-        <v>12354.2602</v>
+        <v>1995.9426</v>
       </c>
       <c r="G124" t="n">
-        <v>-732266.7414297878</v>
+        <v>-749823.426929788</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>26</v>
+      </c>
+      <c r="K124" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5310,31 +5266,35 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.88</v>
+        <v>25.89</v>
       </c>
       <c r="C125" t="n">
-        <v>26.88</v>
+        <v>25.9</v>
       </c>
       <c r="D125" t="n">
-        <v>26.88</v>
+        <v>25.9</v>
       </c>
       <c r="E125" t="n">
-        <v>26.88</v>
+        <v>25.89</v>
       </c>
       <c r="F125" t="n">
-        <v>19</v>
+        <v>5215.0036</v>
       </c>
       <c r="G125" t="n">
-        <v>-732247.7414297878</v>
+        <v>-755038.430529788</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>26</v>
+      </c>
+      <c r="K125" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,31 +5310,35 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.7</v>
+        <v>26.28</v>
       </c>
       <c r="C126" t="n">
-        <v>26.7</v>
+        <v>25.83</v>
       </c>
       <c r="D126" t="n">
-        <v>26.7</v>
+        <v>26.29</v>
       </c>
       <c r="E126" t="n">
-        <v>26.7</v>
+        <v>25.83</v>
       </c>
       <c r="F126" t="n">
-        <v>5069.6808</v>
+        <v>131200</v>
       </c>
       <c r="G126" t="n">
-        <v>-737317.4222297878</v>
+        <v>-886238.430529788</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K126" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,31 +5354,35 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26.81</v>
+        <v>25.83</v>
       </c>
       <c r="C127" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="D127" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="E127" t="n">
-        <v>26.81</v>
+        <v>25.83</v>
       </c>
       <c r="F127" t="n">
-        <v>48881.8076</v>
+        <v>5749.128</v>
       </c>
       <c r="G127" t="n">
-        <v>-688435.6146297879</v>
+        <v>-886238.430529788</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="K127" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,31 +5398,35 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="D128" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="E128" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="F128" t="n">
-        <v>1936.592592592593</v>
+        <v>7513.7433</v>
       </c>
       <c r="G128" t="n">
-        <v>-688435.6146297879</v>
+        <v>-878724.687229788</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="K128" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5470,31 +5442,35 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="C129" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E129" t="n">
-        <v>27</v>
+        <v>25.99</v>
       </c>
       <c r="F129" t="n">
-        <v>33751.6951</v>
+        <v>1728.5185</v>
       </c>
       <c r="G129" t="n">
-        <v>-688435.6146297879</v>
+        <v>-876996.168729788</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="K129" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5510,31 +5486,35 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="C130" t="n">
-        <v>27.16</v>
+        <v>25.83</v>
       </c>
       <c r="D130" t="n">
-        <v>27.16</v>
+        <v>25.83</v>
       </c>
       <c r="E130" t="n">
-        <v>27</v>
+        <v>25.83</v>
       </c>
       <c r="F130" t="n">
-        <v>30359.0621146239</v>
+        <v>21060.2299</v>
       </c>
       <c r="G130" t="n">
-        <v>-658076.552515164</v>
+        <v>-898056.3986297881</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>26</v>
+      </c>
+      <c r="K130" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5550,31 +5530,35 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.03</v>
+        <v>25.95</v>
       </c>
       <c r="C131" t="n">
-        <v>26.61</v>
+        <v>25.95</v>
       </c>
       <c r="D131" t="n">
-        <v>27.03</v>
+        <v>25.95</v>
       </c>
       <c r="E131" t="n">
-        <v>26.61</v>
+        <v>25.95</v>
       </c>
       <c r="F131" t="n">
-        <v>48125</v>
+        <v>2620.7862</v>
       </c>
       <c r="G131" t="n">
-        <v>-706201.552515164</v>
+        <v>-895435.6124297881</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="K131" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,31 +5574,35 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.12</v>
+        <v>25.9</v>
       </c>
       <c r="C132" t="n">
-        <v>27.12</v>
+        <v>27.87</v>
       </c>
       <c r="D132" t="n">
-        <v>27.12</v>
+        <v>27.87</v>
       </c>
       <c r="E132" t="n">
-        <v>27.12</v>
+        <v>25.9</v>
       </c>
       <c r="F132" t="n">
-        <v>19</v>
+        <v>9405.365</v>
       </c>
       <c r="G132" t="n">
-        <v>-706182.552515164</v>
+        <v>-886030.2474297881</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="K132" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,22 +5618,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="C133" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D133" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E133" t="n">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="F133" t="n">
-        <v>2129.3245</v>
+        <v>6444.7403</v>
       </c>
       <c r="G133" t="n">
-        <v>-708311.877015164</v>
+        <v>-892474.9877297881</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5654,7 +5642,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,22 +5660,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>26.7</v>
+        <v>26.28</v>
       </c>
       <c r="C134" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="D134" t="n">
-        <v>26.7</v>
+        <v>26.59</v>
       </c>
       <c r="E134" t="n">
-        <v>26.7</v>
+        <v>26.28</v>
       </c>
       <c r="F134" t="n">
-        <v>22479.6844</v>
+        <v>132134.7259</v>
       </c>
       <c r="G134" t="n">
-        <v>-708311.877015164</v>
+        <v>-760340.2618297881</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5694,7 +5684,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>25.92</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5710,40 +5702,1260 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="C135" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D135" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E135" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8481.588</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-751858.6738297881</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D136" t="n">
         <v>26.7</v>
       </c>
-      <c r="C135" t="n">
+      <c r="E136" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>81965.56299999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-833824.2368297881</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="D137" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-833804.2368297881</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4225</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-838029.2368297881</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>45</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-838074.2368297881</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="D140" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F140" t="n">
+        <v>33730.6654</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-871804.902229788</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15274.7208</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-856530.181429788</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16369.3826</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-872899.564029788</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5073.8796</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-867825.684429788</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="C144" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="D144" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="E144" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="F144" t="n">
+        <v>17269.8979</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-850555.786529788</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="C145" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="D145" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15530.4947</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-835025.291829788</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="C146" t="n">
         <v>26.7</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D146" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E146" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="F146" t="n">
+        <v>66330.5724</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-768694.7194297879</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C147" t="n">
         <v>26.7</v>
       </c>
-      <c r="E135" t="n">
+      <c r="D147" t="n">
         <v>26.7</v>
       </c>
-      <c r="F135" t="n">
+      <c r="E147" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11221.9467</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-768694.7194297879</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D148" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7440.811</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-776135.5304297879</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27</v>
+      </c>
+      <c r="E149" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>41760.2752</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-734375.2552297879</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13982.3562</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-720392.8990297879</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11873.8424</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-732266.7414297878</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C152" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D152" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10105.9202</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-732266.7414297878</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="C153" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D153" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="E153" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12354.2602</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-732266.7414297878</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="F154" t="n">
+        <v>19</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-732247.7414297878</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5069.6808</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-737317.4222297878</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="F156" t="n">
+        <v>48881.8076</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-688435.6146297879</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1936.592592592593</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-688435.6146297879</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27</v>
+      </c>
+      <c r="F158" t="n">
+        <v>33751.6951</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-688435.6146297879</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27</v>
+      </c>
+      <c r="F159" t="n">
+        <v>30359.0621146239</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-658076.552515164</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="C160" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="E160" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="F160" t="n">
+        <v>48125</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-706201.552515164</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="F161" t="n">
+        <v>19</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-706182.552515164</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2129.3245</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-708311.877015164</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C163" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E163" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>22479.6844</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-708311.877015164</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F164" t="n">
         <v>2533.132</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G164" t="n">
         <v>-708311.877015164</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>517436.8039279094</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>509438.3336279094</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.08</v>
       </c>
       <c r="J3" t="n">
         <v>26.08</v>
       </c>
-      <c r="K3" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>469507.3336279094</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
-      </c>
-      <c r="K4" t="n">
         <v>26.08</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>469527.3336279094</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25.91</v>
       </c>
       <c r="J5" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="K5" t="n">
         <v>26.08</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>468778.1597279094</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.19</v>
       </c>
       <c r="J6" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="K6" t="n">
         <v>26.08</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>480735.1652279093</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="J7" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K7" t="n">
         <v>26.08</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>471085.6994279093</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>26.08</v>
       </c>
       <c r="J8" t="n">
         <v>26.08</v>
       </c>
-      <c r="K8" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,21 @@
         <v>384327.6642279094</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K9" t="n">
         <v>26.08</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +765,23 @@
         <v>384347.6642279094</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.81</v>
       </c>
       <c r="J10" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="K10" t="n">
         <v>26.08</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -842,22 +808,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>26.08</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -882,24 +845,23 @@
         <v>338231.2734279094</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" t="n">
         <v>26.08</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,24 +886,23 @@
         <v>338251.2734279094</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>26.08</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,22 +929,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>26.08</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1010,22 +968,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>26.08</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,22 +1007,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>26.08</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1094,22 +1046,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>26.08</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,22 +1085,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>26.08</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1178,22 +1124,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>26.08</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,22 +1163,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>26.08</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1262,22 +1202,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>26.08</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1304,22 +1241,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>26.08</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1346,22 +1280,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>26.08</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1388,22 +1319,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>26.08</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,26 +1356,21 @@
         <v>1420588.93276088</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>26.08</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1.145306748466258</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.003076923076923</v>
-      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1472,18 +1395,21 @@
         <v>1274222.86086088</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,18 +1434,21 @@
         <v>1068851.80926088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1544,18 +1473,21 @@
         <v>1101980.05926088</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1582,16 +1514,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1618,16 +1553,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1652,18 +1590,23 @@
         <v>-22463.37382978806</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1.068236196319019</v>
+      </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>1.003076923076923</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1688,18 +1631,15 @@
         <v>-178187.8865297881</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,18 +1664,15 @@
         <v>16283.38427021194</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1760,18 +1697,15 @@
         <v>-85429.08842978805</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1796,18 +1730,15 @@
         <v>-153242.845029788</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1834,16 +1765,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1868,18 +1796,15 @@
         <v>-155249.552329788</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,16 +1831,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1942,16 +1864,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1978,16 +1897,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2014,16 +1930,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2050,16 +1963,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2086,16 +1996,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2122,16 +2029,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2158,16 +2062,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2194,16 +2095,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2230,16 +2128,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2266,16 +2161,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2302,16 +2194,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,16 +2227,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2374,16 +2260,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2410,16 +2293,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2446,16 +2326,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2482,16 +2359,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2518,16 +2392,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,16 +2425,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2590,16 +2458,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2626,16 +2491,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2662,16 +2524,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2696,18 +2555,15 @@
         <v>-472815.299129788</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2734,16 +2590,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2770,16 +2623,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2806,16 +2656,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2842,16 +2689,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2878,16 +2722,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2914,16 +2755,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2950,16 +2788,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2986,16 +2821,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3022,16 +2854,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3058,16 +2887,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3094,16 +2920,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3130,16 +2953,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3166,16 +2986,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3202,16 +3019,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3238,16 +3052,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3274,16 +3085,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3310,16 +3118,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3346,16 +3151,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3382,16 +3184,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3418,16 +3217,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3454,16 +3250,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3490,16 +3283,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3526,16 +3316,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3562,16 +3349,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3598,16 +3382,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3634,16 +3415,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3670,16 +3448,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3706,16 +3481,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3740,22 +3512,15 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K89" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3782,22 +3547,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3824,22 +3580,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3866,22 +3613,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3908,22 +3646,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3950,22 +3679,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3992,22 +3712,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4034,22 +3745,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4076,22 +3778,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4118,22 +3811,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4160,22 +3844,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4202,22 +3877,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4244,22 +3910,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4286,22 +3943,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4328,22 +3976,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4370,22 +4009,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4412,22 +4042,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4454,22 +4075,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4494,26 +4106,15 @@
         <v>-721742.388529788</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="K107" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4538,24 +4139,21 @@
         <v>-725693.152829788</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>25.87</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4580,26 +4178,21 @@
         <v>-725743.152829788</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>25.84</v>
       </c>
-      <c r="K109" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4624,26 +4217,21 @@
         <v>-720943.152829788</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>25.61</v>
       </c>
-      <c r="K110" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4668,26 +4256,21 @@
         <v>-738126.164429788</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>25.84</v>
       </c>
-      <c r="K111" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4712,26 +4295,21 @@
         <v>-716922.440429788</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>25.8</v>
       </c>
-      <c r="K112" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4756,26 +4334,21 @@
         <v>-791031.041029788</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>25.84</v>
       </c>
-      <c r="K113" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4800,26 +4373,21 @@
         <v>-768235.020329788</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>25.31</v>
       </c>
-      <c r="K114" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4844,26 +4412,21 @@
         <v>-753766.020329788</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>25.43</v>
       </c>
-      <c r="K115" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4888,26 +4451,21 @@
         <v>-760966.020329788</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
         <v>25.89</v>
       </c>
-      <c r="K116" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4932,26 +4490,21 @@
         <v>-760753.512929788</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>25.7</v>
       </c>
-      <c r="K117" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4976,26 +4529,21 @@
         <v>-750018.272029788</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
         <v>25.8</v>
       </c>
-      <c r="K118" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5020,26 +4568,21 @@
         <v>-770320.291629788</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
         <v>25.87</v>
       </c>
-      <c r="K119" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5064,26 +4607,21 @@
         <v>-770320.291629788</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
         <v>25.84</v>
       </c>
-      <c r="K120" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5108,26 +4646,21 @@
         <v>-790579.593629788</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
         <v>25.84</v>
       </c>
-      <c r="K121" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5152,26 +4685,21 @@
         <v>-790579.593629788</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
         <v>25.8</v>
       </c>
-      <c r="K122" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5196,26 +4724,19 @@
         <v>-749823.426929788</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K123" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5240,26 +4761,21 @@
         <v>-749823.426929788</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
         <v>26</v>
       </c>
-      <c r="K124" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5284,26 +4800,19 @@
         <v>-755038.430529788</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>26</v>
-      </c>
-      <c r="K125" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5328,26 +4837,21 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
         <v>25.9</v>
       </c>
-      <c r="K126" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5372,26 +4876,19 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="K127" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5416,26 +4913,19 @@
         <v>-878724.687229788</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="K128" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5460,26 +4950,19 @@
         <v>-876996.168729788</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="K129" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5504,26 +4987,19 @@
         <v>-898056.3986297881</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>26</v>
-      </c>
-      <c r="K130" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5548,26 +5024,21 @@
         <v>-895435.6124297881</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
         <v>25.83</v>
       </c>
-      <c r="K131" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5592,26 +5063,21 @@
         <v>-886030.2474297881</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
         <v>25.95</v>
       </c>
-      <c r="K132" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5636,24 +5102,21 @@
         <v>-892474.9877297881</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>27.87</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5678,24 +5141,21 @@
         <v>-760340.2618297881</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5722,22 +5182,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5764,22 +5219,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5806,22 +5256,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5848,22 +5293,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5890,22 +5330,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5930,24 +5365,21 @@
         <v>-871804.902229788</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>26.49</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5972,24 +5404,21 @@
         <v>-856530.181429788</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>26.11</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6014,24 +5443,21 @@
         <v>-872899.564029788</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6056,24 +5482,21 @@
         <v>-867825.684429788</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>26.11</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6098,24 +5521,21 @@
         <v>-850555.786529788</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6140,24 +5560,21 @@
         <v>-835025.291829788</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>26.45</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6182,24 +5599,21 @@
         <v>-768694.7194297879</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6224,24 +5638,21 @@
         <v>-768694.7194297879</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6266,24 +5677,21 @@
         <v>-776135.5304297879</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6308,24 +5716,21 @@
         <v>-734375.2552297879</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>26.61</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6352,22 +5757,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6394,22 +5794,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6436,22 +5831,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6476,24 +5866,21 @@
         <v>-732266.7414297878</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>26.61</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6518,24 +5905,21 @@
         <v>-732247.7414297878</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>26.61</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6560,24 +5944,21 @@
         <v>-737317.4222297878</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>26.88</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6602,24 +5983,21 @@
         <v>-688435.6146297879</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6646,22 +6024,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6688,22 +6061,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6730,22 +6098,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6772,22 +6135,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6814,22 +6172,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6854,24 +6207,21 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>27.12</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6896,24 +6246,21 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6940,24 +6287,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>517436.8039279094</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>509438.3336279094</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="J3" t="n">
-        <v>26.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>469507.3336279094</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>469527.3336279094</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25.91</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>468778.1597279094</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>480735.1652279093</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>471085.6994279093</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -765,19 +715,11 @@
         <v>384347.6642279094</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="J10" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -809,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +781,11 @@
         <v>338231.2734279094</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +814,11 @@
         <v>338251.2734279094</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -930,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -969,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1008,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1086,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1125,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1203,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1242,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1281,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1356,17 +1210,11 @@
         <v>1420588.93276088</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1395,17 +1243,11 @@
         <v>1274222.86086088</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1434,17 +1276,11 @@
         <v>1068851.80926088</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1473,17 +1309,11 @@
         <v>1101980.05926088</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1512,17 +1342,11 @@
         <v>1107302.237570212</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1551,17 +1375,11 @@
         <v>279289.4412702119</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1590,23 +1408,15 @@
         <v>-22463.37382978806</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.068236196319019</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.003076923076923</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1631,7 +1441,7 @@
         <v>-178187.8865297881</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1664,7 +1474,7 @@
         <v>16283.38427021194</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1697,7 +1507,7 @@
         <v>-85429.08842978805</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1730,7 +1540,7 @@
         <v>-153242.845029788</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1763,7 +1573,7 @@
         <v>-153111.626629788</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1796,7 +1606,7 @@
         <v>-155249.552329788</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2555,7 +2365,7 @@
         <v>-472815.299129788</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3578,11 +3388,17 @@
         <v>-672238.3368297881</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>26.03</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3615,7 +3431,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3648,7 +3468,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3681,7 +3505,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3714,7 +3542,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3747,7 +3579,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3780,7 +3616,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +3653,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3846,7 +3690,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3879,7 +3727,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3912,7 +3764,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3945,7 +3801,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3978,7 +3838,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4011,7 +3875,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4044,7 +3912,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4073,11 +3945,17 @@
         <v>-657431.5833297881</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4106,11 +3984,17 @@
         <v>-721742.388529788</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>25.89</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4139,7 +4023,7 @@
         <v>-725693.152829788</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>25.87</v>
@@ -4147,7 +4031,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4178,7 +4062,7 @@
         <v>-725743.152829788</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>25.84</v>
@@ -4217,7 +4101,7 @@
         <v>-720943.152829788</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>25.61</v>
@@ -4256,7 +4140,7 @@
         <v>-738126.164429788</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>25.84</v>
@@ -4295,7 +4179,7 @@
         <v>-716922.440429788</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>25.8</v>
@@ -4334,7 +4218,7 @@
         <v>-791031.041029788</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>25.84</v>
@@ -4373,7 +4257,7 @@
         <v>-768235.020329788</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>25.31</v>
@@ -4412,7 +4296,7 @@
         <v>-753766.020329788</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>25.43</v>
@@ -4451,7 +4335,7 @@
         <v>-760966.020329788</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>25.89</v>
@@ -4490,7 +4374,7 @@
         <v>-760753.512929788</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>25.7</v>
@@ -4529,7 +4413,7 @@
         <v>-750018.272029788</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>25.8</v>
@@ -4568,7 +4452,7 @@
         <v>-770320.291629788</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>25.87</v>
@@ -4607,7 +4491,7 @@
         <v>-770320.291629788</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>25.84</v>
@@ -4646,7 +4530,7 @@
         <v>-790579.593629788</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>25.84</v>
@@ -4685,7 +4569,7 @@
         <v>-790579.593629788</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>25.8</v>
@@ -4724,9 +4608,11 @@
         <v>-749823.426929788</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4761,7 +4647,7 @@
         <v>-749823.426929788</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>26</v>
@@ -4800,9 +4686,11 @@
         <v>-755038.430529788</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4837,7 +4725,7 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>25.9</v>
@@ -4876,9 +4764,11 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>25.83</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4913,9 +4803,11 @@
         <v>-878724.687229788</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>25.83</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4950,9 +4842,11 @@
         <v>-876996.168729788</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>25.99</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4987,9 +4881,11 @@
         <v>-898056.3986297881</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>26</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5024,7 +4920,7 @@
         <v>-895435.6124297881</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>25.83</v>
@@ -5063,7 +4959,7 @@
         <v>-886030.2474297881</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>25.95</v>
@@ -5102,7 +4998,7 @@
         <v>-892474.9877297881</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>27.87</v>
@@ -5141,11 +5037,9 @@
         <v>-760340.2618297881</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5254,9 +5148,11 @@
         <v>-833804.2368297881</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5365,11 +5261,9 @@
         <v>-871804.902229788</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>26.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5404,7 +5298,7 @@
         <v>-856530.181429788</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>26.11</v>
@@ -5443,7 +5337,7 @@
         <v>-872899.564029788</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>26.2</v>
@@ -5482,7 +5376,7 @@
         <v>-867825.684429788</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>26.11</v>
@@ -5521,7 +5415,7 @@
         <v>-850555.786529788</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>26.3</v>
@@ -5560,7 +5454,7 @@
         <v>-835025.291829788</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>26.45</v>
@@ -5599,7 +5493,7 @@
         <v>-768694.7194297879</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>26.52</v>
@@ -5638,7 +5532,7 @@
         <v>-768694.7194297879</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>26.7</v>
@@ -5677,7 +5571,7 @@
         <v>-776135.5304297879</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>26.7</v>
@@ -5716,7 +5610,7 @@
         <v>-734375.2552297879</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>26.61</v>
@@ -5866,11 +5760,9 @@
         <v>-732266.7414297878</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>26.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5905,11 +5797,9 @@
         <v>-732247.7414297878</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>26.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5944,11 +5834,9 @@
         <v>-737317.4222297878</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>26.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5983,11 +5871,9 @@
         <v>-688435.6146297879</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6207,11 +6093,9 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>27.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6246,11 +6130,9 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6300,6 +6182,6 @@
       <c r="M164" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
         <v>1253714.733029814</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1212101.475629814</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1420588.93276088</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1274222.86086088</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1068851.80926088</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1101980.05926088</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1107302.237570212</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>279289.4412702119</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-22463.37382978806</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-178187.8865297881</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>16283.38427021194</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-85429.08842978805</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-153242.845029788</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-153111.626629788</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-155249.552329788</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-316807.682429788</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-319996.672029788</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-399257.680129788</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-410690.739029788</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-410668.739029788</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-500364.880829788</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-511520.380829788</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3322,10 +3322,14 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="J89" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3355,11 +3359,19 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="J90" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3393,10 +3405,12 @@
       <c r="I91" t="n">
         <v>26.03</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3427,10 +3441,14 @@
         <v>-631094.3759297881</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="J92" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,10 +3482,14 @@
         <v>-623655.4840297881</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="J93" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,10 +3523,14 @@
         <v>-620241.8988297881</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,10 +3564,14 @@
         <v>-631437.2232297881</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="J95" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,10 +3605,14 @@
         <v>-614010.5389297882</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J96" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,10 +3646,14 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,10 +3687,14 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,7 +3731,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,7 +3770,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,7 +3809,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,7 +3848,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,7 +3887,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3871,10 +3923,14 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,10 +3964,14 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,7 +4010,9 @@
       <c r="I106" t="n">
         <v>25.9</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,7 +4051,9 @@
       <c r="I107" t="n">
         <v>25.89</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,7 +4092,9 @@
       <c r="I108" t="n">
         <v>25.87</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4067,7 +4133,9 @@
       <c r="I109" t="n">
         <v>25.84</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,7 +4174,9 @@
       <c r="I110" t="n">
         <v>25.61</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,7 +4215,9 @@
       <c r="I111" t="n">
         <v>25.84</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,7 +4256,9 @@
       <c r="I112" t="n">
         <v>25.8</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4223,7 +4297,9 @@
       <c r="I113" t="n">
         <v>25.84</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,7 +4338,9 @@
       <c r="I114" t="n">
         <v>25.31</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4301,7 +4379,9 @@
       <c r="I115" t="n">
         <v>25.43</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,7 +4420,9 @@
       <c r="I116" t="n">
         <v>25.89</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,7 +4461,9 @@
       <c r="I117" t="n">
         <v>25.7</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,7 +4502,9 @@
       <c r="I118" t="n">
         <v>25.8</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,7 +4543,9 @@
       <c r="I119" t="n">
         <v>25.87</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,7 +4584,9 @@
       <c r="I120" t="n">
         <v>25.84</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,7 +4625,9 @@
       <c r="I121" t="n">
         <v>25.84</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,7 +4666,9 @@
       <c r="I122" t="n">
         <v>25.8</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4613,7 +4707,9 @@
       <c r="I123" t="n">
         <v>25.8</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,7 +4748,9 @@
       <c r="I124" t="n">
         <v>26</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,12 +4784,12 @@
         <v>-755038.430529788</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>26</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,7 +4828,9 @@
       <c r="I126" t="n">
         <v>25.9</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,12 +4864,12 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4808,7 +4908,9 @@
       <c r="I128" t="n">
         <v>25.83</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,7 +4949,9 @@
       <c r="I129" t="n">
         <v>25.99</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,12 +4985,12 @@
         <v>-898056.3986297881</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>26</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4925,7 +5029,9 @@
       <c r="I131" t="n">
         <v>25.83</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,7 +5070,9 @@
       <c r="I132" t="n">
         <v>25.95</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,12 +5106,12 @@
         <v>-892474.9877297881</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,7 +5148,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,7 +5187,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,7 +5226,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5148,12 +5262,12 @@
         <v>-833804.2368297881</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,7 +5304,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5227,7 +5343,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,7 +5382,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,12 +5418,12 @@
         <v>-856530.181429788</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,12 +5457,12 @@
         <v>-872899.564029788</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,12 +5496,12 @@
         <v>-867825.684429788</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,12 +5535,12 @@
         <v>-850555.786529788</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,12 +5574,12 @@
         <v>-835025.291829788</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,12 +5613,12 @@
         <v>-768694.7194297879</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,12 +5652,12 @@
         <v>-768694.7194297879</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,12 +5691,12 @@
         <v>-776135.5304297879</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,12 +5730,12 @@
         <v>-734375.2552297879</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>26.61</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,7 +5772,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,7 +5811,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,7 +5850,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,7 +5889,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,7 +5928,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,7 +5967,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,7 +6006,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,7 +6045,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,7 +6084,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,7 +6123,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6022,7 +6162,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,17 +6198,19 @@
         <v>-706182.552515164</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>25.92</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>1.041296296296296</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
@@ -6093,15 +6237,11 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +6274,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6171,17 +6307,13 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -1078,7 +1078,7 @@
         <v>1253714.733029814</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1212101.475629814</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1276983.103629814</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1420588.93276088</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1274222.86086088</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1068851.80926088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1101980.05926088</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>279289.4412702119</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-22463.37382978806</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-178187.8865297881</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-316807.682429788</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-319996.672029788</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-399257.680129788</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-410690.739029788</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-410668.739029788</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-500364.880829788</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-511520.380829788</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3322,14 +3322,10 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="J89" t="n">
-        <v>25.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,19 +3355,11 @@
         <v>-555328.2505297881</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="J90" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3400,19 +3388,11 @@
         <v>-672238.3368297881</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="J91" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,19 +3421,11 @@
         <v>-631094.3759297881</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3482,19 +3454,11 @@
         <v>-623655.4840297881</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="J93" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3523,19 +3487,11 @@
         <v>-620241.8988297881</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3564,19 +3520,11 @@
         <v>-631437.2232297881</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3605,19 +3553,11 @@
         <v>-614010.5389297882</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="J96" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3646,19 +3586,11 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3687,19 +3619,11 @@
         <v>-626177.2465297881</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>26</v>
-      </c>
-      <c r="J98" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3809,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3848,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3923,19 +3817,11 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3964,19 +3850,11 @@
         <v>-649603.234929788</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4005,19 +3883,11 @@
         <v>-657431.5833297881</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J106" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4046,19 +3916,11 @@
         <v>-721742.388529788</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="J107" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4087,19 +3949,11 @@
         <v>-725693.152829788</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="J108" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4133,12 +3987,10 @@
       <c r="I109" t="n">
         <v>25.84</v>
       </c>
-      <c r="J109" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4174,9 +4026,7 @@
       <c r="I110" t="n">
         <v>25.61</v>
       </c>
-      <c r="J110" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,9 +4065,7 @@
       <c r="I111" t="n">
         <v>25.84</v>
       </c>
-      <c r="J111" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,9 +4104,7 @@
       <c r="I112" t="n">
         <v>25.8</v>
       </c>
-      <c r="J112" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4297,9 +4143,7 @@
       <c r="I113" t="n">
         <v>25.84</v>
       </c>
-      <c r="J113" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,9 +4182,7 @@
       <c r="I114" t="n">
         <v>25.31</v>
       </c>
-      <c r="J114" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,9 +4221,7 @@
       <c r="I115" t="n">
         <v>25.43</v>
       </c>
-      <c r="J115" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,9 +4260,7 @@
       <c r="I116" t="n">
         <v>25.89</v>
       </c>
-      <c r="J116" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4461,9 +4299,7 @@
       <c r="I117" t="n">
         <v>25.7</v>
       </c>
-      <c r="J117" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,9 +4338,7 @@
       <c r="I118" t="n">
         <v>25.8</v>
       </c>
-      <c r="J118" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,9 +4377,7 @@
       <c r="I119" t="n">
         <v>25.87</v>
       </c>
-      <c r="J119" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,9 +4416,7 @@
       <c r="I120" t="n">
         <v>25.84</v>
       </c>
-      <c r="J120" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4625,9 +4455,7 @@
       <c r="I121" t="n">
         <v>25.84</v>
       </c>
-      <c r="J121" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,9 +4494,7 @@
       <c r="I122" t="n">
         <v>25.8</v>
       </c>
-      <c r="J122" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,9 +4533,7 @@
       <c r="I123" t="n">
         <v>25.8</v>
       </c>
-      <c r="J123" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4572,7 @@
       <c r="I124" t="n">
         <v>26</v>
       </c>
-      <c r="J124" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,12 +4606,12 @@
         <v>-755038.430529788</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4828,9 +4650,7 @@
       <c r="I126" t="n">
         <v>25.9</v>
       </c>
-      <c r="J126" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,12 +4684,12 @@
         <v>-886238.430529788</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,9 +4728,7 @@
       <c r="I128" t="n">
         <v>25.83</v>
       </c>
-      <c r="J128" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,9 +4767,7 @@
       <c r="I129" t="n">
         <v>25.99</v>
       </c>
-      <c r="J129" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,12 +4801,12 @@
         <v>-898056.3986297881</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>26</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5029,9 +4845,7 @@
       <c r="I131" t="n">
         <v>25.83</v>
       </c>
-      <c r="J131" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5070,9 +4884,7 @@
       <c r="I132" t="n">
         <v>25.95</v>
       </c>
-      <c r="J132" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5109,9 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5145,12 +4955,12 @@
         <v>-760340.2618297881</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,12 +4994,12 @@
         <v>-751858.6738297881</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,12 +5033,12 @@
         <v>-833824.2368297881</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,12 +5072,12 @@
         <v>-833804.2368297881</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5304,9 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,9 +5151,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,9 +5188,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5421,9 +5225,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5460,9 +5262,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5499,9 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,12 +5333,12 @@
         <v>-850555.786529788</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,12 +5372,12 @@
         <v>-835025.291829788</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,9 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5655,9 +5451,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,9 +5488,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5733,9 +5525,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,9 +5562,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5811,9 +5599,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,9 +5636,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,9 +5673,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5928,9 +5710,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5967,9 +5747,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6006,9 +5784,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,12 +5818,12 @@
         <v>-688435.6146297879</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>27</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,9 +5860,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,12 +5894,12 @@
         <v>-658076.552515164</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>25.92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>27</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,9 +5936,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,19 +5970,17 @@
         <v>-706182.552515164</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>25.92</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.041296296296296</v>
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
     </row>
@@ -6237,11 +6007,15 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6044,17 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +6083,17 @@
         <v>-708311.877015164</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest LRC.xlsx
+++ b/BackTest/2020-01-13 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:L164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>517436.8039279094</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>7998.4703</v>
       </c>
       <c r="G3" t="n">
-        <v>509438.3336279094</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>26.08</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.08</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>39931</v>
       </c>
       <c r="G4" t="n">
-        <v>469507.3336279094</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,23 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>469527.3336279094</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>25.91</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>749.1739</v>
       </c>
       <c r="G6" t="n">
-        <v>468778.1597279094</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>11957.0055</v>
       </c>
       <c r="G7" t="n">
-        <v>480735.1652279093</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>9649.4658</v>
       </c>
       <c r="G8" t="n">
-        <v>471085.6994279093</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>86758.0352</v>
       </c>
       <c r="G9" t="n">
-        <v>384327.6642279094</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>384347.6642279094</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>47025.3908</v>
       </c>
       <c r="G11" t="n">
-        <v>337322.2734279094</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>909</v>
       </c>
       <c r="G12" t="n">
-        <v>338231.2734279094</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>338251.2734279094</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>8686.8536</v>
       </c>
       <c r="G14" t="n">
-        <v>329564.4198279094</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>100674.9891</v>
       </c>
       <c r="G15" t="n">
-        <v>430239.4089279094</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>16596.1477</v>
       </c>
       <c r="G16" t="n">
-        <v>446835.5566279094</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>18617</v>
       </c>
       <c r="G17" t="n">
-        <v>465452.5566279094</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>312599.8103</v>
       </c>
       <c r="G18" t="n">
-        <v>778052.3669279094</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,21 @@
         <v>246069.5369966849</v>
       </c>
       <c r="G19" t="n">
-        <v>1024121.903924594</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>154006.6528</v>
       </c>
       <c r="G20" t="n">
-        <v>1178128.556724594</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,21 @@
         <v>75586.17630521914</v>
       </c>
       <c r="G21" t="n">
-        <v>1253714.733029814</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,21 @@
         <v>41613.2574</v>
       </c>
       <c r="G22" t="n">
-        <v>1212101.475629814</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1193,21 @@
         <v>60056.1576</v>
       </c>
       <c r="G23" t="n">
-        <v>1152045.318029813</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1229,21 @@
         <v>124937.7856</v>
       </c>
       <c r="G24" t="n">
-        <v>1276983.103629814</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1265,21 @@
         <v>143605.8291310667</v>
       </c>
       <c r="G25" t="n">
-        <v>1420588.93276088</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1301,21 @@
         <v>146366.0719</v>
       </c>
       <c r="G26" t="n">
-        <v>1274222.86086088</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1337,23 @@
         <v>205371.0516</v>
       </c>
       <c r="G27" t="n">
-        <v>1068851.80926088</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1.072837423312884</v>
+      </c>
       <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>1.003076923076923</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1375,15 @@
         <v>33128.25</v>
       </c>
       <c r="G28" t="n">
-        <v>1101980.05926088</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1405,15 @@
         <v>5322.178309331991</v>
       </c>
       <c r="G29" t="n">
-        <v>1107302.237570212</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1435,15 @@
         <v>828012.7963</v>
       </c>
       <c r="G30" t="n">
-        <v>279289.4412702119</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1465,15 @@
         <v>301752.8151</v>
       </c>
       <c r="G31" t="n">
-        <v>-22463.37382978806</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1495,15 @@
         <v>155724.5127</v>
       </c>
       <c r="G32" t="n">
-        <v>-178187.8865297881</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1525,15 @@
         <v>194471.2708</v>
       </c>
       <c r="G33" t="n">
-        <v>16283.38427021194</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1555,15 @@
         <v>101712.4727</v>
       </c>
       <c r="G34" t="n">
-        <v>-85429.08842978805</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1585,15 @@
         <v>67813.75659999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-153242.845029788</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1615,15 @@
         <v>131.2184</v>
       </c>
       <c r="G36" t="n">
-        <v>-153111.626629788</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1645,15 @@
         <v>2137.9257</v>
       </c>
       <c r="G37" t="n">
-        <v>-155249.552329788</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1675,15 @@
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>-155249.552329788</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1705,15 @@
         <v>94311.4412</v>
       </c>
       <c r="G39" t="n">
-        <v>-249560.993529788</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1735,15 @@
         <v>17812.8029</v>
       </c>
       <c r="G40" t="n">
-        <v>-231748.190629788</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1765,15 @@
         <v>20848.971</v>
       </c>
       <c r="G41" t="n">
-        <v>-252597.161629788</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1795,15 @@
         <v>51975.7788</v>
       </c>
       <c r="G42" t="n">
-        <v>-304572.940429788</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1825,15 @@
         <v>555</v>
       </c>
       <c r="G43" t="n">
-        <v>-304017.940429788</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1855,15 @@
         <v>9712.526900000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-304017.940429788</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1885,15 @@
         <v>32979.568</v>
       </c>
       <c r="G45" t="n">
-        <v>-271038.372429788</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1915,15 @@
         <v>3159.1216</v>
       </c>
       <c r="G46" t="n">
-        <v>-271038.372429788</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1945,15 @@
         <v>78</v>
       </c>
       <c r="G47" t="n">
-        <v>-271116.372429788</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1975,15 @@
         <v>94.05629999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-271116.372429788</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2005,15 @@
         <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>-271095.372429788</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2035,15 @@
         <v>45712.31</v>
       </c>
       <c r="G50" t="n">
-        <v>-316807.682429788</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2065,15 @@
         <v>3188.9896</v>
       </c>
       <c r="G51" t="n">
-        <v>-319996.672029788</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2095,15 @@
         <v>79261.00810000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-399257.680129788</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2125,15 @@
         <v>11433.0589</v>
       </c>
       <c r="G53" t="n">
-        <v>-410690.739029788</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2155,15 @@
         <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>-410668.739029788</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2185,15 @@
         <v>72583.08900000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-483251.828029788</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2215,15 @@
         <v>17113.0528</v>
       </c>
       <c r="G56" t="n">
-        <v>-500364.880829788</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2245,15 @@
         <v>11155.5</v>
       </c>
       <c r="G57" t="n">
-        <v>-511520.380829788</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2275,15 @@
         <v>28608.5481</v>
       </c>
       <c r="G58" t="n">
-        <v>-482911.832729788</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2305,15 @@
         <v>29680.547</v>
       </c>
       <c r="G59" t="n">
-        <v>-512592.379729788</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2335,15 @@
         <v>39777.0806</v>
       </c>
       <c r="G60" t="n">
-        <v>-472815.299129788</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2365,19 @@
         <v>47592.3409</v>
       </c>
       <c r="G61" t="n">
-        <v>-520407.640029788</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26.45</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2399,23 @@
         <v>10822</v>
       </c>
       <c r="G62" t="n">
-        <v>-531229.640029788</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>26.35</v>
+      </c>
+      <c r="I62" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2437,21 @@
         <v>12000</v>
       </c>
       <c r="G63" t="n">
-        <v>-531229.640029788</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2473,21 @@
         <v>30000</v>
       </c>
       <c r="G64" t="n">
-        <v>-501229.640029788</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2509,21 @@
         <v>78521.8135</v>
       </c>
       <c r="G65" t="n">
-        <v>-579751.4535297881</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2545,21 @@
         <v>58539.824</v>
       </c>
       <c r="G66" t="n">
-        <v>-521211.629529788</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2581,21 @@
         <v>2670.2681</v>
       </c>
       <c r="G67" t="n">
-        <v>-518541.3614297881</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2617,21 @@
         <v>2067</v>
       </c>
       <c r="G68" t="n">
-        <v>-520608.3614297881</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2653,21 @@
         <v>450</v>
       </c>
       <c r="G69" t="n">
-        <v>-520608.3614297881</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2689,21 @@
         <v>1250</v>
       </c>
       <c r="G70" t="n">
-        <v>-521858.3614297881</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2725,23 @@
         <v>3252.5522</v>
       </c>
       <c r="G71" t="n">
-        <v>-518605.8092297881</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>26.09</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2763,23 @@
         <v>12934.2072</v>
       </c>
       <c r="G72" t="n">
-        <v>-505671.6020297881</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>26.19</v>
+      </c>
+      <c r="I72" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2801,23 @@
         <v>11202.5355</v>
       </c>
       <c r="G73" t="n">
-        <v>-516874.1375297881</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>26.3</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2839,21 @@
         <v>138245.0398</v>
       </c>
       <c r="G74" t="n">
-        <v>-378629.097729788</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2875,23 @@
         <v>18992.419</v>
       </c>
       <c r="G75" t="n">
-        <v>-359636.6787297881</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>26.18</v>
+      </c>
+      <c r="I75" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2913,21 @@
         <v>11335.4005</v>
       </c>
       <c r="G76" t="n">
-        <v>-359636.6787297881</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2949,21 @@
         <v>13816.1082</v>
       </c>
       <c r="G77" t="n">
-        <v>-359636.6787297881</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2985,21 @@
         <v>12288</v>
       </c>
       <c r="G78" t="n">
-        <v>-371924.6787297881</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3021,21 @@
         <v>81825.6323</v>
       </c>
       <c r="G79" t="n">
-        <v>-453750.311029788</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3057,21 @@
         <v>6929</v>
       </c>
       <c r="G80" t="n">
-        <v>-446821.311029788</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3093,21 @@
         <v>51206.4641</v>
       </c>
       <c r="G81" t="n">
-        <v>-498027.775129788</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3129,21 @@
         <v>4683.9775</v>
       </c>
       <c r="G82" t="n">
-        <v>-502711.752629788</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3165,21 @@
         <v>7353.5602</v>
       </c>
       <c r="G83" t="n">
-        <v>-495358.192429788</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3201,21 @@
         <v>1331.6842</v>
       </c>
       <c r="G84" t="n">
-        <v>-496689.876629788</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3237,21 @@
         <v>59200.6915</v>
       </c>
       <c r="G85" t="n">
-        <v>-555890.568129788</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3273,21 @@
         <v>16085.5204</v>
       </c>
       <c r="G86" t="n">
-        <v>-539805.047729788</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3309,21 @@
         <v>7226.5485</v>
       </c>
       <c r="G87" t="n">
-        <v>-547031.596229788</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3345,21 @@
         <v>22022.9756</v>
       </c>
       <c r="G88" t="n">
-        <v>-569054.571829788</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3381,21 @@
         <v>13726.3213</v>
       </c>
       <c r="G89" t="n">
-        <v>-555328.2505297881</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3417,21 @@
         <v>43263.2443</v>
       </c>
       <c r="G90" t="n">
-        <v>-555328.2505297881</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3453,21 @@
         <v>116910.0863</v>
       </c>
       <c r="G91" t="n">
-        <v>-672238.3368297881</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3489,21 @@
         <v>41143.9609</v>
       </c>
       <c r="G92" t="n">
-        <v>-631094.3759297881</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3525,21 @@
         <v>7438.8919</v>
       </c>
       <c r="G93" t="n">
-        <v>-623655.4840297881</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3561,21 @@
         <v>3413.5852</v>
       </c>
       <c r="G94" t="n">
-        <v>-620241.8988297881</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3597,21 @@
         <v>11195.3244</v>
       </c>
       <c r="G95" t="n">
-        <v>-631437.2232297881</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3633,21 @@
         <v>17426.6843</v>
       </c>
       <c r="G96" t="n">
-        <v>-614010.5389297882</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3669,21 @@
         <v>12166.7076</v>
       </c>
       <c r="G97" t="n">
-        <v>-626177.2465297881</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3705,21 @@
         <v>243056.316</v>
       </c>
       <c r="G98" t="n">
-        <v>-626177.2465297881</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3741,21 @@
         <v>25346.6549</v>
       </c>
       <c r="G99" t="n">
-        <v>-600830.5916297882</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3777,21 @@
         <v>10846.4589</v>
       </c>
       <c r="G100" t="n">
-        <v>-611677.0505297881</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3813,21 @@
         <v>10038.9375</v>
       </c>
       <c r="G101" t="n">
-        <v>-601638.1130297881</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3849,21 @@
         <v>36934.1654</v>
       </c>
       <c r="G102" t="n">
-        <v>-638572.2784297881</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3885,21 @@
         <v>15290.2869</v>
       </c>
       <c r="G103" t="n">
-        <v>-653862.565329788</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3921,21 @@
         <v>4259.3304</v>
       </c>
       <c r="G104" t="n">
-        <v>-649603.234929788</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3957,21 @@
         <v>4810.3751</v>
       </c>
       <c r="G105" t="n">
-        <v>-649603.234929788</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3993,21 @@
         <v>7828.3484</v>
       </c>
       <c r="G106" t="n">
-        <v>-657431.5833297881</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4029,21 @@
         <v>64310.8052</v>
       </c>
       <c r="G107" t="n">
-        <v>-721742.388529788</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4065,21 @@
         <v>3950.7643</v>
       </c>
       <c r="G108" t="n">
-        <v>-725693.152829788</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,24 +4101,21 @@
         <v>50</v>
       </c>
       <c r="G109" t="n">
-        <v>-725743.152829788</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4018,24 +4137,21 @@
         <v>4800</v>
       </c>
       <c r="G110" t="n">
-        <v>-720943.152829788</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>25.61</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4057,24 +4173,21 @@
         <v>17183.0116</v>
       </c>
       <c r="G111" t="n">
-        <v>-738126.164429788</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4096,24 +4209,21 @@
         <v>21203.724</v>
       </c>
       <c r="G112" t="n">
-        <v>-716922.440429788</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4135,24 +4245,21 @@
         <v>74108.60060000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-791031.041029788</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4174,24 +4281,21 @@
         <v>22796.0207</v>
       </c>
       <c r="G114" t="n">
-        <v>-768235.020329788</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>25.31</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4213,24 +4317,21 @@
         <v>14469</v>
       </c>
       <c r="G115" t="n">
-        <v>-753766.020329788</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>25.43</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4252,24 +4353,23 @@
         <v>7200</v>
       </c>
       <c r="G116" t="n">
-        <v>-760966.020329788</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>25.89</v>
       </c>
       <c r="I116" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4291,24 +4391,21 @@
         <v>212.5074</v>
       </c>
       <c r="G117" t="n">
-        <v>-760753.512929788</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4330,24 +4427,21 @@
         <v>10735.2409</v>
       </c>
       <c r="G118" t="n">
-        <v>-750018.272029788</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4369,24 +4463,21 @@
         <v>20302.0196</v>
       </c>
       <c r="G119" t="n">
-        <v>-770320.291629788</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4408,24 +4499,21 @@
         <v>20460.154</v>
       </c>
       <c r="G120" t="n">
-        <v>-770320.291629788</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4447,24 +4535,21 @@
         <v>20259.302</v>
       </c>
       <c r="G121" t="n">
-        <v>-790579.593629788</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>25.84</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4486,24 +4571,21 @@
         <v>18939.7804</v>
       </c>
       <c r="G122" t="n">
-        <v>-790579.593629788</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4525,24 +4607,21 @@
         <v>40756.1667</v>
       </c>
       <c r="G123" t="n">
-        <v>-749823.426929788</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4564,24 +4643,21 @@
         <v>1995.9426</v>
       </c>
       <c r="G124" t="n">
-        <v>-749823.426929788</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>26</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4603,24 +4679,21 @@
         <v>5215.0036</v>
       </c>
       <c r="G125" t="n">
-        <v>-755038.430529788</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>26</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4642,24 +4715,21 @@
         <v>131200</v>
       </c>
       <c r="G126" t="n">
-        <v>-886238.430529788</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4681,24 +4751,21 @@
         <v>5749.128</v>
       </c>
       <c r="G127" t="n">
-        <v>-886238.430529788</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4720,24 +4787,21 @@
         <v>7513.7433</v>
       </c>
       <c r="G128" t="n">
-        <v>-878724.687229788</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4759,24 +4823,21 @@
         <v>1728.5185</v>
       </c>
       <c r="G129" t="n">
-        <v>-876996.168729788</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4798,24 +4859,21 @@
         <v>21060.2299</v>
       </c>
       <c r="G130" t="n">
-        <v>-898056.3986297881</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>26</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4837,24 +4895,21 @@
         <v>2620.7862</v>
       </c>
       <c r="G131" t="n">
-        <v>-895435.6124297881</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4876,24 +4931,21 @@
         <v>9405.365</v>
       </c>
       <c r="G132" t="n">
-        <v>-886030.2474297881</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4915,22 +4967,21 @@
         <v>6444.7403</v>
       </c>
       <c r="G133" t="n">
-        <v>-892474.9877297881</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4952,24 +5003,21 @@
         <v>132134.7259</v>
       </c>
       <c r="G134" t="n">
-        <v>-760340.2618297881</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4991,24 +5039,21 @@
         <v>8481.588</v>
       </c>
       <c r="G135" t="n">
-        <v>-751858.6738297881</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5030,24 +5075,21 @@
         <v>81965.56299999999</v>
       </c>
       <c r="G136" t="n">
-        <v>-833824.2368297881</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5069,24 +5111,21 @@
         <v>20</v>
       </c>
       <c r="G137" t="n">
-        <v>-833804.2368297881</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5108,22 +5147,21 @@
         <v>4225</v>
       </c>
       <c r="G138" t="n">
-        <v>-838029.2368297881</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5145,22 +5183,21 @@
         <v>45</v>
       </c>
       <c r="G139" t="n">
-        <v>-838074.2368297881</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5182,22 +5219,21 @@
         <v>33730.6654</v>
       </c>
       <c r="G140" t="n">
-        <v>-871804.902229788</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5219,22 +5255,21 @@
         <v>15274.7208</v>
       </c>
       <c r="G141" t="n">
-        <v>-856530.181429788</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5256,22 +5291,21 @@
         <v>16369.3826</v>
       </c>
       <c r="G142" t="n">
-        <v>-872899.564029788</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5293,22 +5327,21 @@
         <v>5073.8796</v>
       </c>
       <c r="G143" t="n">
-        <v>-867825.684429788</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5330,24 +5363,21 @@
         <v>17269.8979</v>
       </c>
       <c r="G144" t="n">
-        <v>-850555.786529788</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5369,24 +5399,21 @@
         <v>15530.4947</v>
       </c>
       <c r="G145" t="n">
-        <v>-835025.291829788</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
         <v>26.45</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5408,22 +5435,21 @@
         <v>66330.5724</v>
       </c>
       <c r="G146" t="n">
-        <v>-768694.7194297879</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5445,22 +5471,21 @@
         <v>11221.9467</v>
       </c>
       <c r="G147" t="n">
-        <v>-768694.7194297879</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5482,22 +5507,21 @@
         <v>7440.811</v>
       </c>
       <c r="G148" t="n">
-        <v>-776135.5304297879</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5519,22 +5543,21 @@
         <v>41760.2752</v>
       </c>
       <c r="G149" t="n">
-        <v>-734375.2552297879</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5556,22 +5579,21 @@
         <v>13982.3562</v>
       </c>
       <c r="G150" t="n">
-        <v>-720392.8990297879</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5593,22 +5615,21 @@
         <v>11873.8424</v>
       </c>
       <c r="G151" t="n">
-        <v>-732266.7414297878</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5630,22 +5651,21 @@
         <v>10105.9202</v>
       </c>
       <c r="G152" t="n">
-        <v>-732266.7414297878</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5667,22 +5687,21 @@
         <v>12354.2602</v>
       </c>
       <c r="G153" t="n">
-        <v>-732266.7414297878</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5704,22 +5723,21 @@
         <v>19</v>
       </c>
       <c r="G154" t="n">
-        <v>-732247.7414297878</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5741,22 +5759,21 @@
         <v>5069.6808</v>
       </c>
       <c r="G155" t="n">
-        <v>-737317.4222297878</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5778,22 +5795,21 @@
         <v>48881.8076</v>
       </c>
       <c r="G156" t="n">
-        <v>-688435.6146297879</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5815,24 +5831,21 @@
         <v>1936.592592592593</v>
       </c>
       <c r="G157" t="n">
-        <v>-688435.6146297879</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>27</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5854,22 +5867,21 @@
         <v>33751.6951</v>
       </c>
       <c r="G158" t="n">
-        <v>-688435.6146297879</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5891,24 +5903,21 @@
         <v>30359.0621146239</v>
       </c>
       <c r="G159" t="n">
-        <v>-658076.552515164</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>27</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5930,22 +5939,21 @@
         <v>48125</v>
       </c>
       <c r="G160" t="n">
-        <v>-706201.552515164</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5967,22 +5975,21 @@
         <v>19</v>
       </c>
       <c r="G161" t="n">
-        <v>-706182.552515164</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6004,22 +6011,21 @@
         <v>2129.3245</v>
       </c>
       <c r="G162" t="n">
-        <v>-708311.877015164</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6041,24 +6047,21 @@
         <v>22479.6844</v>
       </c>
       <c r="G163" t="n">
-        <v>-708311.877015164</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6080,24 +6083,21 @@
         <v>2533.132</v>
       </c>
       <c r="G164" t="n">
-        <v>-708311.877015164</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>26.45</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
